--- a/experiments/IISBMP2/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP2/data/biogas_and_setup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -2492,11 +2492,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK240"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:H16"/>
+      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2630,7 +2630,7 @@
         <v>43370.649305555555</v>
       </c>
       <c r="L3" s="6">
-        <f>K3-K$3</f>
+        <f t="shared" ref="L3:L66" si="0">K3-K$3</f>
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L4" s="6">
-        <f>K4-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L5" s="6">
-        <f>K5-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L6" s="6">
-        <f>K6-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L7" s="6">
-        <f>K7-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L8" s="6">
-        <f>K8-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L9" s="6">
-        <f>K9-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L10" s="6">
-        <f>K10-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L11" s="6">
-        <f>K11-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L12" s="6">
-        <f>K12-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L13" s="6">
-        <f>K13-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L14" s="6">
-        <f>K14-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L15" s="6">
-        <f>K15-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
         <v>43370.649305555598</v>
       </c>
       <c r="L16" s="6">
-        <f>K16-K$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
         <v>43371.375</v>
       </c>
       <c r="L17" s="6">
-        <f>K17-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
         <v>43371.375</v>
       </c>
       <c r="L18" s="6">
-        <f>K18-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
         <v>43371.375</v>
       </c>
       <c r="L19" s="6">
-        <f>K19-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
         <v>43371.375</v>
       </c>
       <c r="L20" s="6">
-        <f>K20-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
         <v>43371.375</v>
       </c>
       <c r="L21" s="6">
-        <f>K21-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
         <v>43371.375</v>
       </c>
       <c r="L22" s="6">
-        <f>K22-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
         <v>43371.375</v>
       </c>
       <c r="L23" s="6">
-        <f>K23-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
         <v>43371.375</v>
       </c>
       <c r="L24" s="6">
-        <f>K24-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
         <v>43371.375</v>
       </c>
       <c r="L25" s="6">
-        <f>K25-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
         <v>43371.375</v>
       </c>
       <c r="L26" s="6">
-        <f>K26-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
         <v>43371.375</v>
       </c>
       <c r="L27" s="6">
-        <f>K27-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
         <v>43371.375</v>
       </c>
       <c r="L28" s="6">
-        <f>K28-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
         <v>43371.375</v>
       </c>
       <c r="L29" s="6">
-        <f>K29-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
         <v>43371.375</v>
       </c>
       <c r="L30" s="6">
-        <f>K30-K$3</f>
+        <f t="shared" si="0"/>
         <v>0.72569444444525288</v>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L31" s="6">
-        <f>K31-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L32" s="6">
-        <f>K32-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L33" s="6">
-        <f>K33-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L34" s="6">
-        <f>K34-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L35" s="6">
-        <f>K35-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L36" s="6">
-        <f>K36-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L37" s="6">
-        <f>K37-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L38" s="6">
-        <f>K38-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L39" s="6">
-        <f>K39-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L40" s="6">
-        <f>K40-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L41" s="6">
-        <f>K41-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L42" s="6">
-        <f>K42-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L43" s="6">
-        <f>K43-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
         <v>43372.253472222197</v>
       </c>
       <c r="L44" s="6">
-        <f>K44-K$3</f>
+        <f t="shared" si="0"/>
         <v>1.6041666666424135</v>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L45" s="6">
-        <f>K45-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L46" s="6">
-        <f>K46-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L47" s="6">
-        <f>K47-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L48" s="6">
-        <f>K48-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L49" s="6">
-        <f>K49-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L50" s="6">
-        <f>K50-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L51" s="6">
-        <f>K51-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4518,7 +4518,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L52" s="6">
-        <f>K52-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L53" s="6">
-        <f>K53-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L54" s="6">
-        <f>K54-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L55" s="6">
-        <f>K55-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L56" s="6">
-        <f>K56-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L57" s="6">
-        <f>K57-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
         <v>43373.626388888901</v>
       </c>
       <c r="L58" s="6">
-        <f>K58-K$3</f>
+        <f t="shared" si="0"/>
         <v>2.977083333345945</v>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L59" s="6">
-        <f>K59-K$3</f>
+        <f t="shared" si="0"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L60" s="6">
-        <f>K60-K$3</f>
+        <f t="shared" si="0"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L61" s="6">
-        <f>K61-K$3</f>
+        <f t="shared" si="0"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L62" s="6">
-        <f>K62-K$3</f>
+        <f t="shared" si="0"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L63" s="6">
-        <f>K63-K$3</f>
+        <f t="shared" si="0"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -4970,7 +4970,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L64" s="6">
-        <f>K64-K$3</f>
+        <f t="shared" si="0"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L65" s="6">
-        <f>K65-K$3</f>
+        <f t="shared" si="0"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L66" s="6">
-        <f>K66-K$3</f>
+        <f t="shared" si="0"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L67" s="6">
-        <f>K67-K$3</f>
+        <f t="shared" ref="L67:L130" si="1">K67-K$3</f>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L68" s="6">
-        <f>K68-K$3</f>
+        <f t="shared" si="1"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L69" s="6">
-        <f>K69-K$3</f>
+        <f t="shared" si="1"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L70" s="6">
-        <f>K70-K$3</f>
+        <f t="shared" si="1"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L71" s="6">
-        <f>K71-K$3</f>
+        <f t="shared" si="1"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
         <v>43374.368055555598</v>
       </c>
       <c r="L72" s="6">
-        <f>K72-K$3</f>
+        <f t="shared" si="1"/>
         <v>3.7187500000436557</v>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
         <v>43375.40625</v>
       </c>
       <c r="L73" s="6">
-        <f>K73-K$3</f>
+        <f t="shared" si="1"/>
         <v>4.7569444444452529</v>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
         <v>43375.40625</v>
       </c>
       <c r="L74" s="6">
-        <f>K74-K$3</f>
+        <f t="shared" si="1"/>
         <v>4.7569444444452529</v>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
         <v>43375.40625</v>
       </c>
       <c r="L75" s="6">
-        <f>K75-K$3</f>
+        <f t="shared" si="1"/>
         <v>4.7569444444452529</v>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
         <v>43375.40625</v>
       </c>
       <c r="L76" s="6">
-        <f>K76-K$3</f>
+        <f t="shared" si="1"/>
         <v>4.7569444444452529</v>
       </c>
     </row>
@@ -5450,7 +5450,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L77" s="6">
-        <f>K77-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L78" s="6">
-        <f>K78-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5523,7 +5523,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L79" s="6">
-        <f>K79-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L80" s="6">
-        <f>K80-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5596,7 +5596,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L81" s="6">
-        <f>K81-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L82" s="6">
-        <f>K82-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L83" s="6">
-        <f>K83-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L84" s="6">
-        <f>K84-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5748,7 +5748,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L85" s="6">
-        <f>K85-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5785,7 +5785,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L86" s="6">
-        <f>K86-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L87" s="6">
-        <f>K87-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L88" s="6">
-        <f>K88-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L89" s="6">
-        <f>K89-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
         <v>43376.338194444397</v>
       </c>
       <c r="L90" s="6">
-        <f>K90-K$3</f>
+        <f t="shared" si="1"/>
         <v>5.6888888888424844</v>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L91" s="6">
-        <f>K91-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6002,7 +6002,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L92" s="6">
-        <f>K92-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L93" s="6">
-        <f>K93-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6074,7 +6074,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L94" s="6">
-        <f>K94-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6110,7 +6110,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L95" s="6">
-        <f>K95-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L96" s="6">
-        <f>K96-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L97" s="6">
-        <f>K97-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6218,7 +6218,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L98" s="6">
-        <f>K98-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L99" s="6">
-        <f>K99-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L100" s="6">
-        <f>K100-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L101" s="6">
-        <f>K101-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L102" s="6">
-        <f>K102-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6404,7 +6404,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L103" s="6">
-        <f>K103-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6440,7 +6440,7 @@
         <v>43378.464583333298</v>
       </c>
       <c r="L104" s="6">
-        <f>K104-K$3</f>
+        <f t="shared" si="1"/>
         <v>7.8152777777431766</v>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
         <v>43379.888888888898</v>
       </c>
       <c r="L105" s="6">
-        <f>K105-K$3</f>
+        <f t="shared" si="1"/>
         <v>9.2395833333430346</v>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
         <v>43379.888888888898</v>
       </c>
       <c r="L106" s="6">
-        <f>K106-K$3</f>
+        <f t="shared" si="1"/>
         <v>9.2395833333430346</v>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>43379.888888888898</v>
       </c>
       <c r="L107" s="6">
-        <f>K107-K$3</f>
+        <f t="shared" si="1"/>
         <v>9.2395833333430346</v>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
         <v>43379.888888888898</v>
       </c>
       <c r="L108" s="6">
-        <f>K108-K$3</f>
+        <f t="shared" si="1"/>
         <v>9.2395833333430346</v>
       </c>
     </row>
@@ -6623,7 +6623,7 @@
         <v>43379.888888888898</v>
       </c>
       <c r="L109" s="6">
-        <f>K109-K$3</f>
+        <f t="shared" si="1"/>
         <v>9.2395833333430346</v>
       </c>
     </row>
@@ -6659,7 +6659,7 @@
         <v>43379.888888888898</v>
       </c>
       <c r="L110" s="6">
-        <f>K110-K$3</f>
+        <f t="shared" si="1"/>
         <v>9.2395833333430346</v>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
         <v>43379.888888888898</v>
       </c>
       <c r="L111" s="6">
-        <f>K111-K$3</f>
+        <f t="shared" si="1"/>
         <v>9.2395833333430346</v>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
         <v>43379.888888888898</v>
       </c>
       <c r="L112" s="6">
-        <f>K112-K$3</f>
+        <f t="shared" si="1"/>
         <v>9.2395833333430346</v>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L113" s="6">
-        <f>K113-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -6800,7 +6800,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L114" s="6">
-        <f>K114-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -6836,7 +6836,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L115" s="6">
-        <f>K115-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L116" s="6">
-        <f>K116-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L117" s="6">
-        <f>K117-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L118" s="6">
-        <f>K118-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L119" s="6">
-        <f>K119-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L120" s="6">
-        <f>K120-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L121" s="6">
-        <f>K121-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L122" s="6">
-        <f>K122-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -7127,7 +7127,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L123" s="6">
-        <f>K123-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L124" s="6">
-        <f>K124-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -7199,7 +7199,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L125" s="6">
-        <f>K125-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
         <v>43381.488194444399</v>
       </c>
       <c r="L126" s="6">
-        <f>K126-K$3</f>
+        <f t="shared" si="1"/>
         <v>10.83888888884394</v>
       </c>
     </row>
@@ -7268,7 +7268,7 @@
         <v>43384.5090277778</v>
       </c>
       <c r="L127" s="6">
-        <f>K127-K$3</f>
+        <f t="shared" si="1"/>
         <v>13.859722222245182</v>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
         <v>43384.509722222203</v>
       </c>
       <c r="L128" s="6">
-        <f>K128-K$3</f>
+        <f t="shared" si="1"/>
         <v>13.860416666648234</v>
       </c>
     </row>
@@ -7340,7 +7340,7 @@
         <v>43384.510416666701</v>
       </c>
       <c r="L129" s="6">
-        <f>K129-K$3</f>
+        <f t="shared" si="1"/>
         <v>13.861111111145874</v>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
         <v>43384.511111111096</v>
       </c>
       <c r="L130" s="6">
-        <f>K130-K$3</f>
+        <f t="shared" si="1"/>
         <v>13.86180555554165</v>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
         <v>43384.511805555601</v>
       </c>
       <c r="L131" s="6">
-        <f>K131-K$3</f>
+        <f t="shared" ref="L131:L194" si="2">K131-K$3</f>
         <v>13.862500000046566</v>
       </c>
     </row>
@@ -7450,7 +7450,7 @@
         <v>43384.512499999997</v>
       </c>
       <c r="L132" s="6">
-        <f>K132-K$3</f>
+        <f t="shared" si="2"/>
         <v>13.863194444442343</v>
       </c>
     </row>
@@ -7487,7 +7487,7 @@
         <v>43384.5131944444</v>
       </c>
       <c r="L133" s="6">
-        <f>K133-K$3</f>
+        <f t="shared" si="2"/>
         <v>13.863888888845395</v>
       </c>
     </row>
@@ -7524,7 +7524,7 @@
         <v>43384.513888888898</v>
       </c>
       <c r="L134" s="6">
-        <f>K134-K$3</f>
+        <f t="shared" si="2"/>
         <v>13.864583333343035</v>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
         <v>43384.514583333301</v>
       </c>
       <c r="L135" s="6">
-        <f>K135-K$3</f>
+        <f t="shared" si="2"/>
         <v>13.865277777746087</v>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
         <v>43384.515277777798</v>
       </c>
       <c r="L136" s="6">
-        <f>K136-K$3</f>
+        <f t="shared" si="2"/>
         <v>13.865972222243727</v>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
         <v>43384.515972222202</v>
       </c>
       <c r="L137" s="6">
-        <f>K137-K$3</f>
+        <f t="shared" si="2"/>
         <v>13.866666666646779</v>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
         <v>43384.516666666699</v>
       </c>
       <c r="L138" s="6">
-        <f>K138-K$3</f>
+        <f t="shared" si="2"/>
         <v>13.867361111144419</v>
       </c>
     </row>
@@ -7707,7 +7707,7 @@
         <v>43384.517361111102</v>
       </c>
       <c r="L139" s="6">
-        <f>K139-K$3</f>
+        <f t="shared" si="2"/>
         <v>13.868055555547471</v>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
         <v>43384.5180555556</v>
       </c>
       <c r="L140" s="6">
-        <f>K140-K$3</f>
+        <f t="shared" si="2"/>
         <v>13.868750000045111</v>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L141" s="6">
-        <f>K141-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -7812,7 +7812,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L142" s="6">
-        <f>K142-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L143" s="6">
-        <f>K143-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -7884,7 +7884,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L144" s="6">
-        <f>K144-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -7920,7 +7920,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L145" s="6">
-        <f>K145-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -7956,7 +7956,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L146" s="6">
-        <f>K146-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -7992,7 +7992,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L147" s="6">
-        <f>K147-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -8028,7 +8028,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L148" s="6">
-        <f>K148-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L149" s="6">
-        <f>K149-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L150" s="6">
-        <f>K150-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L151" s="6">
-        <f>K151-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L152" s="6">
-        <f>K152-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L153" s="6">
-        <f>K153-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -8247,7 +8247,7 @@
         <v>43388.890277777798</v>
       </c>
       <c r="L154" s="6">
-        <f>K154-K$3</f>
+        <f t="shared" si="2"/>
         <v>18.240972222243727</v>
       </c>
     </row>
@@ -8280,7 +8280,7 @@
         <v>43392.45</v>
       </c>
       <c r="L155" s="6">
-        <f>K155-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
         <v>43392.45</v>
       </c>
       <c r="L156" s="6">
-        <f>K156-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8352,7 +8352,7 @@
         <v>43392.45</v>
       </c>
       <c r="L157" s="6">
-        <f>K157-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8388,7 +8388,7 @@
         <v>43392.45</v>
       </c>
       <c r="L158" s="6">
-        <f>K158-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8424,7 +8424,7 @@
         <v>43392.45</v>
       </c>
       <c r="L159" s="6">
-        <f>K159-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
         <v>43392.45</v>
       </c>
       <c r="L160" s="6">
-        <f>K160-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8496,7 +8496,7 @@
         <v>43392.45</v>
       </c>
       <c r="L161" s="6">
-        <f>K161-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
         <v>43392.45</v>
       </c>
       <c r="L162" s="6">
-        <f>K162-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
         <v>43392.45</v>
       </c>
       <c r="L163" s="6">
-        <f>K163-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8604,7 +8604,7 @@
         <v>43392.45</v>
       </c>
       <c r="L164" s="6">
-        <f>K164-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
         <v>43392.45</v>
       </c>
       <c r="L165" s="6">
-        <f>K165-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8676,7 +8676,7 @@
         <v>43392.45</v>
       </c>
       <c r="L166" s="6">
-        <f>K166-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8712,7 +8712,7 @@
         <v>43392.45</v>
       </c>
       <c r="L167" s="6">
-        <f>K167-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
         <v>43392.45</v>
       </c>
       <c r="L168" s="6">
-        <f>K168-K$3</f>
+        <f t="shared" si="2"/>
         <v>21.800694444442343</v>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L169" s="6">
-        <f>K169-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L170" s="6">
-        <f>K170-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L171" s="6">
-        <f>K171-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L172" s="6">
-        <f>K172-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L173" s="6">
-        <f>K173-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L174" s="6">
-        <f>K174-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L175" s="6">
-        <f>K175-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L176" s="6">
-        <f>K176-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L177" s="6">
-        <f>K177-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L178" s="6">
-        <f>K178-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L179" s="6">
-        <f>K179-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -9177,7 +9177,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L180" s="6">
-        <f>K180-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -9213,7 +9213,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L181" s="6">
-        <f>K181-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -9249,7 +9249,7 @@
         <v>43398.588888888902</v>
       </c>
       <c r="L182" s="6">
-        <f>K182-K$3</f>
+        <f t="shared" si="2"/>
         <v>27.9395833333474</v>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L183" s="6">
-        <f>K183-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9319,7 +9319,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L184" s="6">
-        <f>K184-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9355,7 +9355,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L185" s="6">
-        <f>K185-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L186" s="6">
-        <f>K186-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L187" s="6">
-        <f>K187-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L188" s="6">
-        <f>K188-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9499,7 +9499,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L189" s="6">
-        <f>K189-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9535,7 +9535,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L190" s="6">
-        <f>K190-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9571,7 +9571,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L191" s="6">
-        <f>K191-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9607,7 +9607,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L192" s="6">
-        <f>K192-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L193" s="6">
-        <f>K193-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9679,7 +9679,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L194" s="6">
-        <f>K194-K$3</f>
+        <f t="shared" si="2"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L195" s="6">
-        <f>K195-K$3</f>
+        <f t="shared" ref="L195:L258" si="3">K195-K$3</f>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L196" s="6">
-        <f>K196-K$3</f>
+        <f t="shared" si="3"/>
         <v>31.757638888942893</v>
       </c>
     </row>
@@ -9787,7 +9787,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L197" s="6">
-        <f>K197-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -9826,7 +9826,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L198" s="6">
-        <f>K198-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L199" s="6">
-        <f>K199-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -9904,7 +9904,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L200" s="6">
-        <f>K200-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -9944,7 +9944,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L201" s="6">
-        <f>K201-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L202" s="6">
-        <f>K202-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -10023,7 +10023,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L203" s="6">
-        <f>K203-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -10062,7 +10062,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L204" s="6">
-        <f>K204-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L205" s="6">
-        <f>K205-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -10140,7 +10140,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L206" s="6">
-        <f>K206-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -10179,7 +10179,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L207" s="6">
-        <f>K207-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -10218,7 +10218,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L208" s="6">
-        <f>K208-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L209" s="6">
-        <f>K209-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
         <v>43420.588194444397</v>
       </c>
       <c r="L210" s="6">
-        <f>K210-K$3</f>
+        <f t="shared" si="3"/>
         <v>49.938888888842484</v>
       </c>
     </row>
@@ -10332,7 +10332,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L211" s="6">
-        <f>K211-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10368,7 +10368,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L212" s="6">
-        <f>K212-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10404,7 +10404,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L213" s="6">
-        <f>K213-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10440,7 +10440,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L214" s="6">
-        <f>K214-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L215" s="6">
-        <f>K215-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10512,7 +10512,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L216" s="6">
-        <f>K216-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10548,7 +10548,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L217" s="6">
-        <f>K217-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L218" s="6">
-        <f>K218-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10622,7 +10622,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L219" s="6">
-        <f>K219-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10659,7 +10659,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L220" s="6">
-        <f>K220-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10696,7 +10696,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L221" s="6">
-        <f>K221-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10732,7 +10732,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L222" s="6">
-        <f>K222-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L223" s="6">
-        <f>K223-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
         <v>43451.484722222202</v>
       </c>
       <c r="L224" s="6">
-        <f>K224-K$3</f>
+        <f t="shared" si="3"/>
         <v>80.835416666646779</v>
       </c>
     </row>
@@ -10837,7 +10837,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L225" s="6">
-        <f>K225-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L226" s="6">
-        <f>K226-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L227" s="6">
-        <f>K227-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L228" s="6">
-        <f>K228-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L229" s="6">
-        <f>K229-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11022,7 +11022,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L230" s="6">
-        <f>K230-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11059,7 +11059,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L231" s="6">
-        <f>K231-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11096,7 +11096,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L232" s="6">
-        <f>K232-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11132,7 +11132,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L233" s="6">
-        <f>K233-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11168,7 +11168,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L234" s="6">
-        <f>K234-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11204,7 +11204,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L235" s="6">
-        <f>K235-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11240,7 +11240,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L236" s="6">
-        <f>K236-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11276,7 +11276,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L237" s="6">
-        <f>K237-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11312,7 +11312,7 @@
         <v>43499.548611111109</v>
       </c>
       <c r="L238" s="6">
-        <f>K238-K$3</f>
+        <f t="shared" si="3"/>
         <v>128.89930555555475</v>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/experiments/IISBMP2/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP2/data/biogas_and_setup.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr date1904="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21506"/>
+  <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au521230\Documents\GitHub\GD-BMP\experiments\IISBMP2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_BA913473D9CE20ABDCCA9BC8D11D853CACE05D5F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Biogas" sheetId="2" r:id="rId2"/>
     <sheet name="ChangeLog" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterate="1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -31,13 +33,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>SDH</author>
     <author>Camilla Glismand Justesen</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K224" authorId="1" shapeId="0">
+    <comment ref="K224" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -255,6 +257,9 @@
     <t>I1</t>
   </si>
   <si>
+    <t>Inoculum</t>
+  </si>
+  <si>
     <t>BK</t>
   </si>
   <si>
@@ -390,7 +395,7 @@
     <t>09.45</t>
   </si>
   <si>
-    <t>Forgot to measure initial mass. Pressure not measured.</t>
+    <t>Forgot to measure initial mass. Set to final value from previous (assumes no leakage). Pressure not measured.</t>
   </si>
   <si>
     <t>03.10.2018</t>
@@ -477,6 +482,18 @@
     <t>11.38</t>
   </si>
   <si>
+    <t>04.02.2019</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>Maybe adjust for this value instead, i.e. not within the given calibration</t>
+  </si>
+  <si>
+    <t>Change of needle</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -555,24 +572,12 @@
     <t>Entered data for 17 Dec. Changed SC VS concentration values based on recent VS results.</t>
   </si>
   <si>
-    <t>04.02.2019</t>
-  </si>
-  <si>
-    <t>13.10</t>
-  </si>
-  <si>
-    <t>Maybe adjust for this value instead, i.e. not within the given calibration</t>
-  </si>
-  <si>
-    <t>Change of needle</t>
+    <t>05 Feb 2019</t>
   </si>
   <si>
     <t xml:space="preserve">Entered data for 4 Feb 2019. </t>
   </si>
   <si>
-    <t>05 Feb 2019</t>
-  </si>
-  <si>
     <t>22 Feb 2019</t>
   </si>
   <si>
@@ -586,21 +591,18 @@
   </si>
   <si>
     <t>Change inoculum only to inoculum in setup$descrip</t>
-  </si>
-  <si>
-    <t>Inoculum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1445,17 +1447,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
@@ -1475,7 +1477,7 @@
     <col min="1024" max="1025" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>375.63</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>371.73</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>375.62</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>376.03</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>375.58</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>373.17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2210,10 +2212,10 @@
         <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1">
         <v>320.81</v>
@@ -2259,18 +2261,18 @@
         <v>113.49000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E13" s="1">
         <v>318.87</v>
@@ -2316,18 +2318,18 @@
         <v>118.80000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1">
         <v>321.95</v>
@@ -2373,18 +2375,18 @@
         <v>103.41000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1">
         <v>322.01</v>
@@ -2430,15 +2432,15 @@
         <v>120.29000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1">
         <v>321.88</v>
@@ -2489,17 +2491,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
@@ -2518,45 +2520,45 @@
     <col min="1023" max="1025" width="5.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2564,37 +2566,37 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="str">
         <f>Setup!A3</f>
         <v>IIS-BMP2</v>
@@ -2604,7 +2606,7 @@
         <v>C1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8">
         <v>15.35</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="str">
         <f>Setup!A4</f>
         <v>IIS-BMP2</v>
@@ -2644,7 +2646,7 @@
         <v>C2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8">
         <v>15.35</v>
@@ -2674,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="str">
         <f>Setup!A5</f>
         <v>IIS-BMP2</v>
@@ -2684,7 +2686,7 @@
         <v>C3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="8">
         <v>15.35</v>
@@ -2714,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="str">
         <f>Setup!A6</f>
         <v>IIS-BMP2</v>
@@ -2724,7 +2726,7 @@
         <v>D1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="8">
         <v>15.35</v>
@@ -2754,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="str">
         <f>Setup!A7</f>
         <v>IIS-BMP2</v>
@@ -2764,7 +2766,7 @@
         <v>D2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8">
         <v>15.35</v>
@@ -2794,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="str">
         <f>Setup!A8</f>
         <v>IIS-BMP2</v>
@@ -2804,7 +2806,7 @@
         <v>D3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8">
         <v>15.35</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="str">
         <f>Setup!A9</f>
         <v>IIS-BMP2</v>
@@ -2844,7 +2846,7 @@
         <v>L1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="8">
         <v>15.35</v>
@@ -2874,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="str">
         <f>Setup!A10</f>
         <v>IIS-BMP2</v>
@@ -2884,7 +2886,7 @@
         <v>L2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="8">
         <v>15.35</v>
@@ -2914,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="str">
         <f>Setup!A11</f>
         <v>IIS-BMP2</v>
@@ -2924,7 +2926,7 @@
         <v>L3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="8">
         <v>15.35</v>
@@ -2954,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="str">
         <f>Setup!A12</f>
         <v>IIS-BMP2</v>
@@ -2964,7 +2966,7 @@
         <v>I1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="8">
         <v>15.35</v>
@@ -2994,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="str">
         <f>Setup!A13</f>
         <v>IIS-BMP2</v>
@@ -3004,7 +3006,7 @@
         <v>I2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="8">
         <v>15.35</v>
@@ -3034,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="str">
         <f>Setup!A14</f>
         <v>IIS-BMP2</v>
@@ -3044,7 +3046,7 @@
         <v>I3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" s="8">
         <v>15.35</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="str">
         <f>Setup!A15</f>
         <v>IIS-BMP2</v>
@@ -3084,7 +3086,7 @@
         <v>I4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="8">
         <v>15.35</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="str">
         <f>Setup!A16</f>
         <v>IIS-BMP2</v>
@@ -3124,7 +3126,7 @@
         <v>W1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="8">
         <v>15.35</v>
@@ -3154,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -3162,10 +3164,10 @@
         <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="10">
         <v>20.3</v>
@@ -3191,7 +3193,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -3199,10 +3201,10 @@
         <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="10">
         <v>20.3</v>
@@ -3228,7 +3230,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -3236,10 +3238,10 @@
         <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="10">
         <v>20.3</v>
@@ -3265,18 +3267,18 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" s="10">
         <v>20.3</v>
@@ -3298,7 +3300,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3306,10 +3308,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="10">
         <v>20.3</v>
@@ -3328,7 +3330,7 @@
         <v>470.97</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" s="11">
         <v>43371.375</v>
@@ -3338,7 +3340,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -3346,10 +3348,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" s="10">
         <v>20.3</v>
@@ -3375,7 +3377,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3383,10 +3385,10 @@
         <v>51</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="10">
         <v>20.3</v>
@@ -3412,7 +3414,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -3420,10 +3422,10 @@
         <v>52</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="10">
         <v>20.3</v>
@@ -3449,7 +3451,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -3457,10 +3459,10 @@
         <v>55</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="10">
         <v>20.3</v>
@@ -3485,7 +3487,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -3493,10 +3495,10 @@
         <v>56</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="10">
         <v>20.3</v>
@@ -3521,7 +3523,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -3529,10 +3531,10 @@
         <v>57</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="10">
         <v>20.3</v>
@@ -3550,7 +3552,7 @@
         <v>729.4</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" s="11">
         <v>43371.375</v>
@@ -3560,18 +3562,18 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" s="10">
         <v>20.3</v>
@@ -3589,7 +3591,7 @@
         <v>721.98</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" s="11">
         <v>43371.375</v>
@@ -3599,18 +3601,18 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="10">
         <v>20.3</v>
@@ -3628,7 +3630,7 @@
         <v>740.44</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" s="11">
         <v>43371.375</v>
@@ -3638,18 +3640,18 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E30" s="10">
         <v>20.3</v>
@@ -3667,7 +3669,7 @@
         <v>723.68</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" s="11">
         <v>43371.375</v>
@@ -3677,18 +3679,18 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="10">
         <v>19</v>
@@ -3704,7 +3706,7 @@
         <v>487.64</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" s="11">
         <v>43372.253472222197</v>
@@ -3714,7 +3716,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -3722,10 +3724,10 @@
         <v>57</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E32" s="10">
         <v>19</v>
@@ -3743,7 +3745,7 @@
         <v>729.33</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" s="11">
         <v>43372.253472222197</v>
@@ -3753,18 +3755,18 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="10">
         <v>19</v>
@@ -3782,7 +3784,7 @@
         <v>721.91</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" s="11">
         <v>43372.253472222197</v>
@@ -3792,18 +3794,18 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E34" s="10">
         <v>19</v>
@@ -3821,7 +3823,7 @@
         <v>740.35</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" s="11">
         <v>43372.253472222197</v>
@@ -3831,18 +3833,18 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E35" s="10">
         <v>19</v>
@@ -3860,7 +3862,7 @@
         <v>723.6</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" s="11">
         <v>43372.253472222197</v>
@@ -3870,7 +3872,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3878,10 +3880,10 @@
         <v>52</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E36" s="10">
         <v>19</v>
@@ -3899,7 +3901,7 @@
         <v>467.6</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" s="11">
         <v>43372.253472222197</v>
@@ -3909,7 +3911,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -3917,10 +3919,10 @@
         <v>55</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" s="10">
         <v>19</v>
@@ -3938,7 +3940,7 @@
         <v>468.36</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" s="11">
         <v>43372.253472222197</v>
@@ -3948,7 +3950,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -3956,10 +3958,10 @@
         <v>56</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" s="10">
         <v>19</v>
@@ -3977,7 +3979,7 @@
         <v>470.39</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" s="11">
         <v>43372.253472222197</v>
@@ -3987,7 +3989,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -3995,10 +3997,10 @@
         <v>46</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39" s="10">
         <v>19</v>
@@ -4017,7 +4019,7 @@
         <v>470.8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" s="11">
         <v>43372.253472222197</v>
@@ -4027,7 +4029,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -4035,10 +4037,10 @@
         <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" s="10">
         <v>19</v>
@@ -4057,7 +4059,7 @@
         <v>471.75</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" s="11">
         <v>43372.253472222197</v>
@@ -4067,7 +4069,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -4075,10 +4077,10 @@
         <v>51</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="10">
         <v>19</v>
@@ -4097,7 +4099,7 @@
         <v>472.18</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" s="11">
         <v>43372.253472222197</v>
@@ -4107,7 +4109,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -4115,10 +4117,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="10">
         <v>19</v>
@@ -4137,7 +4139,7 @@
         <v>467.87</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" s="11">
         <v>43372.253472222197</v>
@@ -4147,7 +4149,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -4155,10 +4157,10 @@
         <v>44</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="10">
         <v>19</v>
@@ -4177,7 +4179,7 @@
         <v>471.23</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" s="11">
         <v>43372.253472222197</v>
@@ -4187,7 +4189,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -4195,10 +4197,10 @@
         <v>45</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>19</v>
@@ -4217,7 +4219,7 @@
         <v>467.66</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" s="11">
         <v>43372.253472222197</v>
@@ -4227,7 +4229,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -4235,10 +4237,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="10">
         <v>20.3</v>
@@ -4264,7 +4266,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -4272,10 +4274,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="10">
         <v>20.3</v>
@@ -4301,7 +4303,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -4309,10 +4311,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="10">
         <v>20.3</v>
@@ -4338,18 +4340,18 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" s="10">
         <v>20.3</v>
@@ -4364,7 +4366,7 @@
         <v>487.65</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K48" s="11">
         <v>43373.626388888901</v>
@@ -4374,7 +4376,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -4382,10 +4384,10 @@
         <v>46</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="10">
         <v>20.3</v>
@@ -4411,7 +4413,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
@@ -4419,10 +4421,10 @@
         <v>50</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="10">
         <v>20.3</v>
@@ -4448,7 +4450,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -4456,10 +4458,10 @@
         <v>51</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="10">
         <v>20.3</v>
@@ -4485,7 +4487,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
@@ -4493,10 +4495,10 @@
         <v>52</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="10">
         <v>20.3</v>
@@ -4522,7 +4524,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -4530,10 +4532,10 @@
         <v>55</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="10">
         <v>20.3</v>
@@ -4559,7 +4561,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -4567,10 +4569,10 @@
         <v>56</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54" s="10">
         <v>20.3</v>
@@ -4596,7 +4598,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -4604,10 +4606,10 @@
         <v>57</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="10">
         <v>20.3</v>
@@ -4626,7 +4628,7 @@
         <v>729.24</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K55" s="11">
         <v>43373.626388888901</v>
@@ -4636,18 +4638,18 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" s="10">
         <v>20.3</v>
@@ -4666,7 +4668,7 @@
         <v>721.83</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K56" s="11">
         <v>43373.626388888901</v>
@@ -4676,18 +4678,18 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57" s="10">
         <v>20.3</v>
@@ -4705,7 +4707,7 @@
         <v>740.27</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K57" s="11">
         <v>43373.626388888901</v>
@@ -4715,18 +4717,18 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="10">
         <v>20.3</v>
@@ -4744,7 +4746,7 @@
         <v>723.52</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K58" s="11">
         <v>43373.626388888901</v>
@@ -4754,18 +4756,18 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E59" s="10">
         <v>20.3</v>
@@ -4774,13 +4776,13 @@
         <v>1000.62</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I59" s="8">
         <v>487.65</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K59" s="11">
         <v>43374.368055555598</v>
@@ -4790,7 +4792,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -4798,10 +4800,10 @@
         <v>57</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E60" s="10">
         <v>20.3</v>
@@ -4819,7 +4821,7 @@
         <v>729.19</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K60" s="11">
         <v>43374.368055555598</v>
@@ -4829,18 +4831,18 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E61" s="10">
         <v>20.3</v>
@@ -4865,18 +4867,18 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E62" s="10">
         <v>20.3</v>
@@ -4901,18 +4903,18 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E63" s="10">
         <v>20.3</v>
@@ -4937,7 +4939,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
@@ -4945,10 +4947,10 @@
         <v>52</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E64" s="10">
         <v>20.3</v>
@@ -4974,7 +4976,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
@@ -4982,10 +4984,10 @@
         <v>55</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65" s="10">
         <v>20.3</v>
@@ -5011,7 +5013,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>40</v>
       </c>
@@ -5019,10 +5021,10 @@
         <v>56</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" s="10">
         <v>20.3</v>
@@ -5048,7 +5050,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -5056,10 +5058,10 @@
         <v>46</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E67" s="10">
         <v>20.3</v>
@@ -5085,7 +5087,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
@@ -5093,10 +5095,10 @@
         <v>50</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E68" s="10">
         <v>20.3</v>
@@ -5122,7 +5124,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>40</v>
       </c>
@@ -5130,10 +5132,10 @@
         <v>51</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69" s="10">
         <v>20.3</v>
@@ -5159,7 +5161,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -5167,10 +5169,10 @@
         <v>41</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E70" s="10">
         <v>20.3</v>
@@ -5196,7 +5198,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -5204,10 +5206,10 @@
         <v>44</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" s="10">
         <v>20.3</v>
@@ -5233,7 +5235,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
@@ -5241,10 +5243,10 @@
         <v>45</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72" s="10">
         <v>20.3</v>
@@ -5270,18 +5272,18 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E73" s="10">
         <v>20.3</v>
@@ -5293,7 +5295,7 @@
         <v>487.65</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K73" s="11">
         <v>43375.40625</v>
@@ -5303,7 +5305,7 @@
         <v>4.7569444444452529</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -5311,10 +5313,10 @@
         <v>52</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E74" s="10">
         <v>20.3</v>
@@ -5322,7 +5324,9 @@
       <c r="F74" s="8">
         <v>1000</v>
       </c>
-      <c r="G74" s="8"/>
+      <c r="G74" s="8">
+        <v>466.77</v>
+      </c>
       <c r="H74" s="10">
         <f>109+137+80</f>
         <v>326</v>
@@ -5331,7 +5335,7 @@
         <v>466.4</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K74" s="11">
         <v>43375.40625</v>
@@ -5341,7 +5345,7 @@
         <v>4.7569444444452529</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
@@ -5349,10 +5353,10 @@
         <v>55</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E75" s="10">
         <v>20.3</v>
@@ -5371,7 +5375,7 @@
         <v>467.11</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K75" s="11">
         <v>43375.40625</v>
@@ -5381,7 +5385,7 @@
         <v>4.7569444444452529</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>40</v>
       </c>
@@ -5389,10 +5393,10 @@
         <v>56</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76" s="10">
         <v>20.3</v>
@@ -5411,7 +5415,7 @@
         <v>469.17</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K76" s="11">
         <v>43375.40625</v>
@@ -5421,18 +5425,18 @@
         <v>4.7569444444452529</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="10">
         <v>20</v>
@@ -5454,7 +5458,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>40</v>
       </c>
@@ -5462,10 +5466,10 @@
         <v>52</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" s="10">
         <v>20</v>
@@ -5491,7 +5495,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>40</v>
       </c>
@@ -5499,10 +5503,10 @@
         <v>55</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" s="10">
         <v>20</v>
@@ -5527,7 +5531,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -5535,10 +5539,10 @@
         <v>56</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="10">
         <v>20</v>
@@ -5563,7 +5567,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>57</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D81" s="18">
         <v>8.07</v>
@@ -5600,18 +5604,18 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" s="10">
         <v>20</v>
@@ -5629,7 +5633,7 @@
         <v>740.11</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K82" s="11">
         <v>43376.338194444397</v>
@@ -5639,18 +5643,18 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" s="10">
         <v>20</v>
@@ -5668,7 +5672,7 @@
         <v>721.67</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K83" s="11">
         <v>43376.338194444397</v>
@@ -5678,18 +5682,18 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" s="10">
         <v>20</v>
@@ -5715,7 +5719,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -5723,10 +5727,10 @@
         <v>46</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85" s="10">
         <v>20</v>
@@ -5752,7 +5756,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>40</v>
       </c>
@@ -5760,10 +5764,10 @@
         <v>50</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="10">
         <v>20</v>
@@ -5789,7 +5793,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -5797,10 +5801,10 @@
         <v>51</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" s="10">
         <v>20</v>
@@ -5826,7 +5830,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -5834,10 +5838,10 @@
         <v>41</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" s="10">
         <v>20</v>
@@ -5863,7 +5867,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -5871,10 +5875,10 @@
         <v>44</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" s="10">
         <v>20</v>
@@ -5900,7 +5904,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -5908,10 +5912,10 @@
         <v>45</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E90" s="10">
         <v>20</v>
@@ -5937,18 +5941,18 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E91" s="10">
         <v>20.100000000000001</v>
@@ -5970,7 +5974,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -5978,10 +5982,10 @@
         <v>52</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E92" s="10">
         <v>20.100000000000001</v>
@@ -6006,7 +6010,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -6014,10 +6018,10 @@
         <v>55</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93" s="10">
         <v>20.100000000000001</v>
@@ -6042,7 +6046,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -6050,10 +6054,10 @@
         <v>56</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E94" s="10">
         <v>20.100000000000001</v>
@@ -6078,7 +6082,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
@@ -6086,10 +6090,10 @@
         <v>57</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E95" s="10">
         <v>20.100000000000001</v>
@@ -6114,18 +6118,18 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E96" s="10">
         <v>20.100000000000001</v>
@@ -6150,18 +6154,18 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E97" s="10">
         <v>20.100000000000001</v>
@@ -6186,18 +6190,18 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E98" s="10">
         <v>20.100000000000001</v>
@@ -6222,7 +6226,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
         <v>40</v>
       </c>
@@ -6230,10 +6234,10 @@
         <v>46</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E99" s="10">
         <v>20.100000000000001</v>
@@ -6259,7 +6263,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
@@ -6267,10 +6271,10 @@
         <v>50</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E100" s="10">
         <v>20.100000000000001</v>
@@ -6289,7 +6293,7 @@
         <v>470.32</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K100" s="11">
         <v>43378.464583333298</v>
@@ -6299,7 +6303,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -6307,10 +6311,10 @@
         <v>51</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E101" s="10">
         <v>20.100000000000001</v>
@@ -6336,7 +6340,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
@@ -6344,10 +6348,10 @@
         <v>41</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E102" s="10">
         <v>20.100000000000001</v>
@@ -6372,7 +6376,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
         <v>40</v>
       </c>
@@ -6380,10 +6384,10 @@
         <v>44</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E103" s="10">
         <v>20.100000000000001</v>
@@ -6408,7 +6412,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -6416,10 +6420,10 @@
         <v>45</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E104" s="10">
         <v>20.100000000000001</v>
@@ -6444,18 +6448,18 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E105" s="10">
         <v>20.399999999999999</v>
@@ -6470,7 +6474,7 @@
         <v>487.64</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K105" s="11">
         <v>43379.888888888898</v>
@@ -6480,7 +6484,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
         <v>40</v>
       </c>
@@ -6488,10 +6492,10 @@
         <v>46</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E106" s="10">
         <v>20.399999999999999</v>
@@ -6517,7 +6521,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -6525,10 +6529,10 @@
         <v>50</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E107" s="10">
         <v>20.399999999999999</v>
@@ -6554,7 +6558,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
         <v>40</v>
       </c>
@@ -6562,10 +6566,10 @@
         <v>51</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E108" s="10">
         <v>20.399999999999999</v>
@@ -6591,7 +6595,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
         <v>40</v>
       </c>
@@ -6599,10 +6603,10 @@
         <v>57</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E109" s="10">
         <v>20.399999999999999</v>
@@ -6627,18 +6631,18 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E110" s="10">
         <v>20.399999999999999</v>
@@ -6663,18 +6667,18 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E111" s="10">
         <v>20.399999999999999</v>
@@ -6699,18 +6703,18 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E112" s="10">
         <v>20.399999999999999</v>
@@ -6735,18 +6739,18 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E113" s="10">
         <v>20.399999999999999</v>
@@ -6768,7 +6772,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
         <v>40</v>
       </c>
@@ -6776,10 +6780,10 @@
         <v>57</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E114" s="10">
         <v>20.399999999999999</v>
@@ -6804,18 +6808,18 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E115" s="10">
         <v>20.399999999999999</v>
@@ -6840,18 +6844,18 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E116" s="10">
         <v>20.399999999999999</v>
@@ -6876,18 +6880,18 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E117" s="10">
         <v>20.399999999999999</v>
@@ -6912,7 +6916,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
@@ -6920,10 +6924,10 @@
         <v>52</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E118" s="10">
         <v>20.399999999999999</v>
@@ -6948,7 +6952,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
         <v>40</v>
       </c>
@@ -6956,10 +6960,10 @@
         <v>55</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E119" s="10">
         <v>20.399999999999999</v>
@@ -6984,7 +6988,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
         <v>40</v>
       </c>
@@ -6992,10 +6996,10 @@
         <v>56</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E120" s="10">
         <v>20.399999999999999</v>
@@ -7020,7 +7024,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
         <v>40</v>
       </c>
@@ -7028,10 +7032,10 @@
         <v>46</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E121" s="10">
         <v>20.399999999999999</v>
@@ -7057,7 +7061,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
         <v>40</v>
       </c>
@@ -7065,10 +7069,10 @@
         <v>50</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E122" s="10">
         <v>20.399999999999999</v>
@@ -7094,7 +7098,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
         <v>40</v>
       </c>
@@ -7102,10 +7106,10 @@
         <v>51</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E123" s="10">
         <v>20.399999999999999</v>
@@ -7131,7 +7135,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
         <v>40</v>
       </c>
@@ -7139,10 +7143,10 @@
         <v>41</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E124" s="10">
         <v>20.399999999999999</v>
@@ -7167,7 +7171,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
         <v>40</v>
       </c>
@@ -7175,10 +7179,10 @@
         <v>44</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E125" s="10">
         <v>20.399999999999999</v>
@@ -7203,7 +7207,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
         <v>40</v>
       </c>
@@ -7211,10 +7215,10 @@
         <v>45</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E126" s="10">
         <v>20.399999999999999</v>
@@ -7239,18 +7243,18 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E127" s="10">
         <v>20.5</v>
@@ -7272,7 +7276,7 @@
         <v>13.859722222245182</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
         <v>40</v>
       </c>
@@ -7280,10 +7284,10 @@
         <v>41</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E128" s="10">
         <v>20.5</v>
@@ -7308,7 +7312,7 @@
         <v>13.860416666648234</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
@@ -7316,10 +7320,10 @@
         <v>44</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E129" s="10">
         <v>20.5</v>
@@ -7344,7 +7348,7 @@
         <v>13.861111111145874</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12">
       <c r="A130" s="1" t="s">
         <v>40</v>
       </c>
@@ -7352,10 +7356,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E130" s="10">
         <v>20.5</v>
@@ -7380,7 +7384,7 @@
         <v>13.86180555554165</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
         <v>40</v>
       </c>
@@ -7388,10 +7392,10 @@
         <v>46</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E131" s="10">
         <v>20.5</v>
@@ -7417,7 +7421,7 @@
         <v>13.862500000046566</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
         <v>40</v>
       </c>
@@ -7425,10 +7429,10 @@
         <v>50</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E132" s="10">
         <v>20.5</v>
@@ -7454,7 +7458,7 @@
         <v>13.863194444442343</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
         <v>40</v>
       </c>
@@ -7462,10 +7466,10 @@
         <v>51</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E133" s="10">
         <v>20.5</v>
@@ -7491,7 +7495,7 @@
         <v>13.863888888845395</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
         <v>40</v>
       </c>
@@ -7499,10 +7503,10 @@
         <v>57</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E134" s="10">
         <v>20.5</v>
@@ -7528,18 +7532,18 @@
         <v>13.864583333343035</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E135" s="10">
         <v>20.5</v>
@@ -7565,18 +7569,18 @@
         <v>13.865277777746087</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E136" s="10">
         <v>20.5</v>
@@ -7602,18 +7606,18 @@
         <v>13.865972222243727</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E137" s="10">
         <v>20.5</v>
@@ -7639,7 +7643,7 @@
         <v>13.866666666646779</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
         <v>40</v>
       </c>
@@ -7647,10 +7651,10 @@
         <v>52</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E138" s="10">
         <v>20.5</v>
@@ -7675,7 +7679,7 @@
         <v>13.867361111144419</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
         <v>40</v>
       </c>
@@ -7683,10 +7687,10 @@
         <v>55</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E139" s="10">
         <v>20.5</v>
@@ -7711,7 +7715,7 @@
         <v>13.868055555547471</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12">
       <c r="A140" s="1" t="s">
         <v>40</v>
       </c>
@@ -7719,10 +7723,10 @@
         <v>56</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E140" s="10">
         <v>20.5</v>
@@ -7747,18 +7751,18 @@
         <v>13.868750000045111</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E141" s="10">
         <v>20.100000000000001</v>
@@ -7780,7 +7784,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
         <v>40</v>
       </c>
@@ -7788,10 +7792,10 @@
         <v>52</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E142" s="10">
         <v>20.100000000000001</v>
@@ -7816,7 +7820,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
         <v>40</v>
       </c>
@@ -7824,10 +7828,10 @@
         <v>55</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E143" s="10">
         <v>20.100000000000001</v>
@@ -7852,7 +7856,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12">
       <c r="A144" s="1" t="s">
         <v>40</v>
       </c>
@@ -7860,10 +7864,10 @@
         <v>56</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E144" s="10">
         <v>20.100000000000001</v>
@@ -7888,7 +7892,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
         <v>40</v>
       </c>
@@ -7896,10 +7900,10 @@
         <v>57</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E145" s="10">
         <v>20.100000000000001</v>
@@ -7924,18 +7928,18 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12">
       <c r="A146" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E146" s="10">
         <v>20.100000000000001</v>
@@ -7960,18 +7964,18 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12">
       <c r="A147" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E147" s="10">
         <v>20.100000000000001</v>
@@ -7996,18 +8000,18 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E148" s="10">
         <v>20.100000000000001</v>
@@ -8032,7 +8036,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
         <v>40</v>
       </c>
@@ -8040,10 +8044,10 @@
         <v>46</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E149" s="10">
         <v>20.100000000000001</v>
@@ -8069,7 +8073,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
         <v>40</v>
       </c>
@@ -8077,10 +8081,10 @@
         <v>50</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E150" s="10">
         <v>20.100000000000001</v>
@@ -8106,7 +8110,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
         <v>40</v>
       </c>
@@ -8114,10 +8118,10 @@
         <v>51</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E151" s="10">
         <v>20.100000000000001</v>
@@ -8143,7 +8147,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -8151,10 +8155,10 @@
         <v>41</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E152" s="10">
         <v>20.100000000000001</v>
@@ -8179,7 +8183,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12">
       <c r="A153" s="1" t="s">
         <v>40</v>
       </c>
@@ -8187,10 +8191,10 @@
         <v>44</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E153" s="10">
         <v>20.100000000000001</v>
@@ -8215,7 +8219,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12">
       <c r="A154" s="1" t="s">
         <v>40</v>
       </c>
@@ -8223,10 +8227,10 @@
         <v>45</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E154" s="10">
         <v>20.100000000000001</v>
@@ -8251,18 +8255,18 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12">
       <c r="A155" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E155" s="10">
         <v>20.5</v>
@@ -8284,7 +8288,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12">
       <c r="A156" s="1" t="s">
         <v>40</v>
       </c>
@@ -8292,10 +8296,10 @@
         <v>52</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E156" s="10">
         <v>20.5</v>
@@ -8320,7 +8324,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12">
       <c r="A157" s="1" t="s">
         <v>40</v>
       </c>
@@ -8328,10 +8332,10 @@
         <v>55</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E157" s="10">
         <v>20.5</v>
@@ -8356,7 +8360,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12">
       <c r="A158" s="1" t="s">
         <v>40</v>
       </c>
@@ -8364,10 +8368,10 @@
         <v>56</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E158" s="10">
         <v>20.5</v>
@@ -8392,7 +8396,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12">
       <c r="A159" s="1" t="s">
         <v>40</v>
       </c>
@@ -8400,10 +8404,10 @@
         <v>57</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E159" s="10">
         <v>20.5</v>
@@ -8428,18 +8432,18 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12">
       <c r="A160" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E160" s="10">
         <v>20.5</v>
@@ -8464,18 +8468,18 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12">
       <c r="A161" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E161" s="10">
         <v>20.5</v>
@@ -8500,18 +8504,18 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12">
       <c r="A162" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E162" s="10">
         <v>20.5</v>
@@ -8536,7 +8540,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12">
       <c r="A163" s="1" t="s">
         <v>40</v>
       </c>
@@ -8544,10 +8548,10 @@
         <v>41</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E163" s="10">
         <v>20.5</v>
@@ -8572,7 +8576,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12">
       <c r="A164" s="1" t="s">
         <v>40</v>
       </c>
@@ -8580,10 +8584,10 @@
         <v>44</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E164" s="10">
         <v>20.5</v>
@@ -8608,7 +8612,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12">
       <c r="A165" s="1" t="s">
         <v>40</v>
       </c>
@@ -8616,10 +8620,10 @@
         <v>45</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E165" s="10">
         <v>20.5</v>
@@ -8644,7 +8648,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12">
       <c r="A166" s="1" t="s">
         <v>40</v>
       </c>
@@ -8652,10 +8656,10 @@
         <v>46</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E166" s="10">
         <v>20.5</v>
@@ -8680,7 +8684,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12">
       <c r="A167" s="1" t="s">
         <v>40</v>
       </c>
@@ -8688,10 +8692,10 @@
         <v>50</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E167" s="10">
         <v>20.5</v>
@@ -8716,7 +8720,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12">
       <c r="A168" s="1" t="s">
         <v>40</v>
       </c>
@@ -8724,10 +8728,10 @@
         <v>51</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E168" s="10">
         <v>20.5</v>
@@ -8752,18 +8756,18 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12">
       <c r="A169" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E169" s="10">
         <v>20.6</v>
@@ -8785,7 +8789,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12">
       <c r="A170" s="1" t="s">
         <v>40</v>
       </c>
@@ -8793,10 +8797,10 @@
         <v>52</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E170" s="10">
         <v>20.6</v>
@@ -8821,7 +8825,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12">
       <c r="A171" s="1" t="s">
         <v>40</v>
       </c>
@@ -8829,10 +8833,10 @@
         <v>55</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E171" s="10">
         <v>20.6</v>
@@ -8857,7 +8861,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12">
       <c r="A172" s="1" t="s">
         <v>40</v>
       </c>
@@ -8865,10 +8869,10 @@
         <v>56</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E172" s="10">
         <v>20.6</v>
@@ -8893,7 +8897,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12">
       <c r="A173" s="1" t="s">
         <v>40</v>
       </c>
@@ -8901,10 +8905,10 @@
         <v>57</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E173" s="10">
         <v>20.6</v>
@@ -8929,18 +8933,18 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12">
       <c r="A174" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E174" s="10">
         <v>20.6</v>
@@ -8965,18 +8969,18 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12">
       <c r="A175" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E175" s="10">
         <v>20.6</v>
@@ -9001,18 +9005,18 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12">
       <c r="A176" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E176" s="10">
         <v>20.6</v>
@@ -9037,7 +9041,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12">
       <c r="A177" s="1" t="s">
         <v>40</v>
       </c>
@@ -9045,10 +9049,10 @@
         <v>41</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E177" s="10">
         <v>20.6</v>
@@ -9073,7 +9077,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12">
       <c r="A178" s="1" t="s">
         <v>40</v>
       </c>
@@ -9081,10 +9085,10 @@
         <v>44</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E178" s="10">
         <v>20.6</v>
@@ -9109,7 +9113,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12">
       <c r="A179" s="1" t="s">
         <v>40</v>
       </c>
@@ -9117,10 +9121,10 @@
         <v>45</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E179" s="10">
         <v>20.6</v>
@@ -9145,7 +9149,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12">
       <c r="A180" s="1" t="s">
         <v>40</v>
       </c>
@@ -9153,10 +9157,10 @@
         <v>46</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E180" s="10">
         <v>20.6</v>
@@ -9181,7 +9185,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12">
       <c r="A181" s="1" t="s">
         <v>40</v>
       </c>
@@ -9189,10 +9193,10 @@
         <v>50</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E181" s="10">
         <v>20.6</v>
@@ -9217,7 +9221,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12">
       <c r="A182" s="1" t="s">
         <v>40</v>
       </c>
@@ -9225,10 +9229,10 @@
         <v>51</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E182" s="10">
         <v>20.6</v>
@@ -9253,18 +9257,18 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12">
       <c r="A183" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E183" s="10">
         <v>20</v>
@@ -9287,7 +9291,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12">
       <c r="A184" s="1" t="s">
         <v>40</v>
       </c>
@@ -9295,10 +9299,10 @@
         <v>52</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E184" s="10">
         <v>20</v>
@@ -9323,7 +9327,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12">
       <c r="A185" s="1" t="s">
         <v>40</v>
       </c>
@@ -9331,10 +9335,10 @@
         <v>55</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E185" s="10">
         <v>20</v>
@@ -9359,7 +9363,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12">
       <c r="A186" s="1" t="s">
         <v>40</v>
       </c>
@@ -9367,10 +9371,10 @@
         <v>56</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E186" s="10">
         <v>20</v>
@@ -9395,7 +9399,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12">
       <c r="A187" s="1" t="s">
         <v>40</v>
       </c>
@@ -9403,10 +9407,10 @@
         <v>57</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E187" s="10">
         <v>20</v>
@@ -9431,18 +9435,18 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12">
       <c r="A188" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E188" s="10">
         <v>20</v>
@@ -9467,18 +9471,18 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12">
       <c r="A189" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E189" s="10">
         <v>20</v>
@@ -9503,18 +9507,18 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12">
       <c r="A190" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E190" s="10">
         <v>20</v>
@@ -9539,7 +9543,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12">
       <c r="A191" s="1" t="s">
         <v>40</v>
       </c>
@@ -9547,10 +9551,10 @@
         <v>41</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E191" s="10">
         <v>20</v>
@@ -9575,7 +9579,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12">
       <c r="A192" s="1" t="s">
         <v>40</v>
       </c>
@@ -9583,10 +9587,10 @@
         <v>44</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E192" s="10">
         <v>20</v>
@@ -9611,7 +9615,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12">
       <c r="A193" s="1" t="s">
         <v>40</v>
       </c>
@@ -9619,10 +9623,10 @@
         <v>45</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E193" s="10">
         <v>20</v>
@@ -9647,7 +9651,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12">
       <c r="A194" s="1" t="s">
         <v>40</v>
       </c>
@@ -9655,10 +9659,10 @@
         <v>46</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E194" s="10">
         <v>20</v>
@@ -9683,7 +9687,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12">
       <c r="A195" s="1" t="s">
         <v>40</v>
       </c>
@@ -9691,10 +9695,10 @@
         <v>50</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E195" s="10">
         <v>20</v>
@@ -9719,7 +9723,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12">
       <c r="A196" s="1" t="s">
         <v>40</v>
       </c>
@@ -9727,10 +9731,10 @@
         <v>51</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E196" s="10">
         <v>20</v>
@@ -9755,18 +9759,18 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12">
       <c r="A197" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E197" s="10">
         <v>21.5</v>
@@ -9781,7 +9785,7 @@
         <v>487.62</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K197" s="11">
         <v>43420.588194444397</v>
@@ -9791,7 +9795,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12">
       <c r="A198" s="1" t="s">
         <v>40</v>
       </c>
@@ -9799,10 +9803,10 @@
         <v>52</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E198" s="10">
         <v>21.5</v>
@@ -9820,7 +9824,7 @@
         <v>465.51</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K198" s="11">
         <v>43420.588194444397</v>
@@ -9830,7 +9834,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12">
       <c r="A199" s="1" t="s">
         <v>40</v>
       </c>
@@ -9838,10 +9842,10 @@
         <v>55</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E199" s="10">
         <v>21.5</v>
@@ -9859,7 +9863,7 @@
         <v>466.25</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K199" s="11">
         <v>43420.588194444397</v>
@@ -9869,7 +9873,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12">
       <c r="A200" s="1" t="s">
         <v>40</v>
       </c>
@@ -9877,10 +9881,10 @@
         <v>56</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E200" s="10">
         <v>21.5</v>
@@ -9898,7 +9902,7 @@
         <v>468.25</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K200" s="11">
         <v>43420.588194444397</v>
@@ -9908,7 +9912,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12">
       <c r="A201" s="1" t="s">
         <v>40</v>
       </c>
@@ -9916,10 +9920,10 @@
         <v>57</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E201" s="10">
         <v>21.5</v>
@@ -9938,7 +9942,7 @@
         <v>728.14</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K201" s="11">
         <v>43420.588194444397</v>
@@ -9948,18 +9952,18 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12">
       <c r="A202" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E202" s="10">
         <v>21.5</v>
@@ -9978,7 +9982,7 @@
         <v>720.68</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K202" s="11">
         <v>43420.588194444397</v>
@@ -9988,18 +9992,18 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12">
       <c r="A203" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E203" s="10">
         <v>21.5</v>
@@ -10017,7 +10021,7 @@
         <v>739.16</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K203" s="11">
         <v>43420.588194444397</v>
@@ -10027,18 +10031,18 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12">
       <c r="A204" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E204" s="10">
         <v>21.5</v>
@@ -10056,7 +10060,7 @@
         <v>722.46</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K204" s="11">
         <v>43420.588194444397</v>
@@ -10066,7 +10070,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12">
       <c r="A205" s="1" t="s">
         <v>40</v>
       </c>
@@ -10074,10 +10078,10 @@
         <v>41</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E205" s="10">
         <v>21.5</v>
@@ -10095,7 +10099,7 @@
         <v>466.2</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K205" s="11">
         <v>43420.588194444397</v>
@@ -10105,7 +10109,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12">
       <c r="A206" s="1" t="s">
         <v>40</v>
       </c>
@@ -10113,10 +10117,10 @@
         <v>44</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E206" s="10">
         <v>21.5</v>
@@ -10134,7 +10138,7 @@
         <v>469.55</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K206" s="11">
         <v>43420.588194444397</v>
@@ -10144,7 +10148,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12">
       <c r="A207" s="1" t="s">
         <v>40</v>
       </c>
@@ -10152,10 +10156,10 @@
         <v>45</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E207" s="10">
         <v>21.5</v>
@@ -10173,7 +10177,7 @@
         <v>465.95</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K207" s="11">
         <v>43420.588194444397</v>
@@ -10183,7 +10187,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12">
       <c r="A208" s="1" t="s">
         <v>40</v>
       </c>
@@ -10191,10 +10195,10 @@
         <v>46</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E208" s="10">
         <v>21.5</v>
@@ -10212,7 +10216,7 @@
         <v>467.82</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K208" s="11">
         <v>43420.588194444397</v>
@@ -10222,7 +10226,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12">
       <c r="A209" s="1" t="s">
         <v>40</v>
       </c>
@@ -10230,10 +10234,10 @@
         <v>50</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E209" s="10">
         <v>21.5</v>
@@ -10251,7 +10255,7 @@
         <v>468.79</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K209" s="11">
         <v>43420.588194444397</v>
@@ -10261,7 +10265,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12">
       <c r="A210" s="1" t="s">
         <v>40</v>
       </c>
@@ -10269,10 +10273,10 @@
         <v>51</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E210" s="10">
         <v>21.5</v>
@@ -10290,7 +10294,7 @@
         <v>469.22</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K210" s="11">
         <v>43420.588194444397</v>
@@ -10300,18 +10304,18 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12">
       <c r="A211" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E211" s="10">
         <v>21.4</v>
@@ -10326,7 +10330,7 @@
         <v>487.6</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K211" s="11">
         <v>43451.484722222202</v>
@@ -10336,7 +10340,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12">
       <c r="A212" s="1" t="s">
         <v>40</v>
       </c>
@@ -10344,10 +10348,10 @@
         <v>46</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E212" s="10">
         <v>21.4</v>
@@ -10372,7 +10376,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12">
       <c r="A213" s="1" t="s">
         <v>40</v>
       </c>
@@ -10380,10 +10384,10 @@
         <v>50</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E213" s="10">
         <v>21.4</v>
@@ -10408,7 +10412,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12">
       <c r="A214" s="1" t="s">
         <v>40</v>
       </c>
@@ -10416,10 +10420,10 @@
         <v>51</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E214" s="10">
         <v>21.4</v>
@@ -10444,7 +10448,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12">
       <c r="A215" s="1" t="s">
         <v>40</v>
       </c>
@@ -10452,10 +10456,10 @@
         <v>41</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E215" s="10">
         <v>21.4</v>
@@ -10480,7 +10484,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12">
       <c r="A216" s="1" t="s">
         <v>40</v>
       </c>
@@ -10488,10 +10492,10 @@
         <v>44</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E216" s="10">
         <v>21.4</v>
@@ -10516,7 +10520,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12">
       <c r="A217" s="1" t="s">
         <v>40</v>
       </c>
@@ -10524,10 +10528,10 @@
         <v>45</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E217" s="10">
         <v>21.4</v>
@@ -10552,7 +10556,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12">
       <c r="A218" s="1" t="s">
         <v>40</v>
       </c>
@@ -10560,10 +10564,10 @@
         <v>57</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E218" s="10">
         <v>21.4</v>
@@ -10589,18 +10593,18 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12">
       <c r="A219" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E219" s="10">
         <v>21.4</v>
@@ -10626,18 +10630,18 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12">
       <c r="A220" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E220" s="10">
         <v>21.4</v>
@@ -10663,18 +10667,18 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12">
       <c r="A221" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E221" s="10">
         <v>21.4</v>
@@ -10700,7 +10704,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12">
       <c r="A222" s="1" t="s">
         <v>40</v>
       </c>
@@ -10708,10 +10712,10 @@
         <v>52</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E222" s="10">
         <v>21.4</v>
@@ -10736,7 +10740,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12">
       <c r="A223" s="1" t="s">
         <v>40</v>
       </c>
@@ -10744,10 +10748,10 @@
         <v>55</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E223" s="10">
         <v>21.4</v>
@@ -10772,7 +10776,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12">
       <c r="A224" s="1" t="s">
         <v>40</v>
       </c>
@@ -10780,10 +10784,10 @@
         <v>56</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E224" s="10">
         <v>21.4</v>
@@ -10808,18 +10812,18 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12">
       <c r="A225" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E225" s="10">
         <v>22.1</v>
@@ -10831,7 +10835,7 @@
         <v>487.57</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="K225" s="11">
         <v>43499.548611111109</v>
@@ -10841,7 +10845,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12">
       <c r="A226" s="1" t="s">
         <v>40</v>
       </c>
@@ -10849,10 +10853,10 @@
         <v>52</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E226" s="10">
         <v>22.1</v>
@@ -10877,7 +10881,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12">
       <c r="A227" s="1" t="s">
         <v>40</v>
       </c>
@@ -10885,10 +10889,10 @@
         <v>55</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E227" s="10">
         <v>22.1</v>
@@ -10913,7 +10917,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12">
       <c r="A228" s="1" t="s">
         <v>40</v>
       </c>
@@ -10921,10 +10925,10 @@
         <v>56</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E228" s="10">
         <v>22.1</v>
@@ -10942,7 +10946,7 @@
         <v>467.98</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="K228" s="11">
         <v>43499.548611111109</v>
@@ -10952,7 +10956,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12">
       <c r="A229" s="1" t="s">
         <v>40</v>
       </c>
@@ -10960,10 +10964,10 @@
         <v>57</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E229" s="10">
         <v>22.1</v>
@@ -10989,18 +10993,18 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12">
       <c r="A230" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E230" s="10">
         <v>22.1</v>
@@ -11026,18 +11030,18 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12">
       <c r="A231" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E231" s="10">
         <v>22.1</v>
@@ -11063,18 +11067,18 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12">
       <c r="A232" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E232" s="10">
         <v>22.1</v>
@@ -11100,7 +11104,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12">
       <c r="A233" s="1" t="s">
         <v>40</v>
       </c>
@@ -11108,10 +11112,10 @@
         <v>41</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E233" s="10">
         <v>22.1</v>
@@ -11136,7 +11140,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12">
       <c r="A234" s="1" t="s">
         <v>40</v>
       </c>
@@ -11144,10 +11148,10 @@
         <v>44</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E234" s="10">
         <v>22.1</v>
@@ -11172,7 +11176,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12">
       <c r="A235" s="1" t="s">
         <v>40</v>
       </c>
@@ -11180,10 +11184,10 @@
         <v>45</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E235" s="10">
         <v>22.1</v>
@@ -11208,7 +11212,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12">
       <c r="A236" s="1" t="s">
         <v>40</v>
       </c>
@@ -11216,10 +11220,10 @@
         <v>46</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E236" s="10">
         <v>22.1</v>
@@ -11244,7 +11248,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12">
       <c r="A237" s="1" t="s">
         <v>40</v>
       </c>
@@ -11252,10 +11256,10 @@
         <v>50</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E237" s="10">
         <v>22.1</v>
@@ -11280,7 +11284,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12">
       <c r="A238" s="1" t="s">
         <v>40</v>
       </c>
@@ -11288,10 +11292,10 @@
         <v>51</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E238" s="10">
         <v>22.1</v>
@@ -11316,10 +11320,10 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12">
       <c r="L239" s="6"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12">
       <c r="L240" s="6"/>
     </row>
   </sheetData>
@@ -11331,14 +11335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
@@ -11347,242 +11351,242 @@
     <col min="5" max="1025" width="8.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="C4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="17" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>164</v>
-      </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/IISBMP2/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP2/data/biogas_and_setup.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_BA913473D9CE20ABDCCA9BC8D11D853CACE05D5F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="173">
   <si>
     <t>Experiment</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t>Change inoculum only to inoculum in setup$descrip</t>
+  </si>
+  <si>
+    <t>12 March 2019</t>
+  </si>
+  <si>
+    <t>Biogas sheet L1 2 Oct 2018, filled in mass.init with previous mass.final value</t>
+  </si>
+  <si>
+    <t>Biogas sheet L1 17 Dec 2018, corrected typo in mass.init (was .68)</t>
   </si>
 </sst>
 </file>
@@ -2494,9 +2503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B195" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G222" sqref="G222"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -10724,7 +10733,7 @@
         <v>1010.47</v>
       </c>
       <c r="G222" s="1">
-        <v>465.68</v>
+        <v>465.48</v>
       </c>
       <c r="H222" s="10">
         <v>92</v>
@@ -11336,10 +11345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK17"/>
+  <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11589,6 +11598,34 @@
         <v>169</v>
       </c>
     </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/experiments/IISBMP2/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP2/data/biogas_and_setup.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_BA913473D9CE20ABDCCA9BC8D11D853CACE05D5F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="174">
   <si>
     <t>Experiment</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>Biogas sheet L1 17 Dec 2018, corrected typo in mass.init (was .68)</t>
+  </si>
+  <si>
+    <t>Biogas sheet C3 28 Sept 2018, correct typo in mass.final (was .25)</t>
   </si>
 </sst>
 </file>
@@ -2504,8 +2507,8 @@
   <dimension ref="A1:AMK240"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <pane xSplit="1" ySplit="2" topLeftCell="B195" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G222" sqref="G222"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -3266,7 +3269,7 @@
         <v>202</v>
       </c>
       <c r="I19" s="8">
-        <v>468.25</v>
+        <v>468.05</v>
       </c>
       <c r="K19" s="11">
         <v>43371.375</v>
@@ -11345,10 +11348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK19"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11626,6 +11629,20 @@
         <v>172</v>
       </c>
     </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/experiments/IISBMP2/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP2/data/biogas_and_setup.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_BA913473D9CE20ABDCCA9BC8D11D853CACE05D5F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="174">
   <si>
     <t>Experiment</t>
   </si>
@@ -591,6 +591,18 @@
   </si>
   <si>
     <t>Change inoculum only to inoculum in setup$descrip</t>
+  </si>
+  <si>
+    <t>12 March 2019</t>
+  </si>
+  <si>
+    <t>Biogas sheet L1 2 Oct 2018, filled in mass.init with previous mass.final value</t>
+  </si>
+  <si>
+    <t>Biogas sheet L1 17 Dec 2018, corrected typo in mass.init (was .68)</t>
+  </si>
+  <si>
+    <t>Biogas sheet C3 28 Sept 2018, correct typo in mass.final (was .25)</t>
   </si>
 </sst>
 </file>
@@ -2494,9 +2506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -3257,7 +3269,7 @@
         <v>202</v>
       </c>
       <c r="I19" s="8">
-        <v>468.25</v>
+        <v>468.05</v>
       </c>
       <c r="K19" s="11">
         <v>43371.375</v>
@@ -10724,7 +10736,7 @@
         <v>1010.47</v>
       </c>
       <c r="G222" s="1">
-        <v>465.68</v>
+        <v>465.48</v>
       </c>
       <c r="H222" s="10">
         <v>92</v>
@@ -11336,10 +11348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK17"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11589,6 +11601,48 @@
         <v>169</v>
       </c>
     </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/experiments/IISBMP2/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP2/data/biogas_and_setup.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21506"/>
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr date1904="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au521230\Documents\GitHub\GD-BMP\experiments\IISBMP2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_BA913473D9CE20ABDCCA9BC8D11D853CACE05D5F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Biogas" sheetId="2" r:id="rId2"/>
     <sheet name="ChangeLog" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,13 +32,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SDH</author>
     <author>Camilla Glismand Justesen</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K224" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="K224" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="179">
   <si>
     <t>Experiment</t>
   </si>
@@ -603,18 +602,33 @@
   </si>
   <si>
     <t>Biogas sheet C3 28 Sept 2018, correct typo in mass.final (was .25)</t>
+  </si>
+  <si>
+    <t>FIC</t>
+  </si>
+  <si>
+    <t>descrip1</t>
+  </si>
+  <si>
+    <t>LBD</t>
+  </si>
+  <si>
+    <t>Add new description column</t>
+  </si>
+  <si>
+    <t>28 March 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -870,7 +884,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>302250</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
@@ -1459,99 +1473,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="2" customWidth="1"/>
-    <col min="21" max="1023" width="9.5" style="1" customWidth="1"/>
-    <col min="1024" max="1025" width="9.5" style="3" customWidth="1"/>
+    <col min="1" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="2" customWidth="1"/>
+    <col min="22" max="1024" width="9.5" style="1" customWidth="1"/>
+    <col min="1025" max="1026" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1562,58 +1576,61 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1621,65 +1638,68 @@
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>322.02999999999997</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>142.25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2.12</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>468.51</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>468.52</v>
       </c>
-      <c r="J3" s="6">
-        <f>AVERAGE(Setup!H3:I3)</f>
+      <c r="K3" s="6">
+        <f>AVERAGE(Setup!I3:J3)</f>
         <v>468.51499999999999</v>
       </c>
-      <c r="K3" s="7">
-        <f>1000*STDEV(Setup!H3:I3)</f>
+      <c r="L3" s="7">
+        <f>1000*STDEV(Setup!I3:J3)</f>
         <v>7.0710678118590442</v>
       </c>
-      <c r="L3" s="7">
-        <f>Setup!J3-(Setup!E3+Setup!F3+Setup!G3)</f>
+      <c r="M3" s="7">
+        <f>Setup!K3-(Setup!F3+Setup!G3+Setup!H3)</f>
         <v>2.1150000000000091</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>802.16</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>22.3</v>
       </c>
-      <c r="O3" s="9">
-        <f>Setup!M3*Setup!G3/1000</f>
+      <c r="P3" s="9">
+        <f>Setup!N3*Setup!H3/1000</f>
         <v>1.7005792000000002</v>
       </c>
-      <c r="P3" s="6">
-        <f>Setup!F3*Setup!N3/1000</f>
+      <c r="Q3" s="6">
+        <f>Setup!G3*Setup!O3/1000</f>
         <v>3.1721750000000002</v>
       </c>
-      <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q11" si="0">P3/O3</f>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R11" si="0">Q3/P3</f>
         <v>1.8653497584822865</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>520</v>
       </c>
-      <c r="S3" s="7">
-        <f>Setup!R3-Setup!F3-Setup!G3</f>
+      <c r="T3" s="7">
+        <f>Setup!S3-Setup!G3-Setup!H3</f>
         <v>375.63</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1687,65 +1707,68 @@
         <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>321.69</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>146.13</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2.14</v>
-      </c>
-      <c r="H4" s="1">
-        <v>471.9</v>
       </c>
       <c r="I4" s="1">
         <v>471.9</v>
       </c>
-      <c r="J4" s="6">
-        <f>AVERAGE(Setup!H4:I4)</f>
+      <c r="J4" s="1">
         <v>471.9</v>
       </c>
-      <c r="K4" s="7">
-        <f>1000*STDEV(Setup!H4:I4)</f>
+      <c r="K4" s="6">
+        <f>AVERAGE(Setup!I4:J4)</f>
+        <v>471.9</v>
+      </c>
+      <c r="L4" s="7">
+        <f>1000*STDEV(Setup!I4:J4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="7">
-        <f>Setup!J4-(Setup!E4+Setup!F4+Setup!G4)</f>
+      <c r="M4" s="7">
+        <f>Setup!K4-(Setup!F4+Setup!G4+Setup!H4)</f>
         <v>1.9399999999999977</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>802.16</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>22.3</v>
       </c>
-      <c r="O4" s="9">
-        <f>Setup!M4*Setup!G4/1000</f>
+      <c r="P4" s="9">
+        <f>Setup!N4*Setup!H4/1000</f>
         <v>1.7166223999999999</v>
       </c>
-      <c r="P4" s="6">
-        <f>Setup!F4*Setup!N4/1000</f>
+      <c r="Q4" s="6">
+        <f>Setup!G4*Setup!O4/1000</f>
         <v>3.258699</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <f t="shared" si="0"/>
         <v>1.898320212995007</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>520</v>
       </c>
-      <c r="S4" s="7">
-        <f>Setup!R4-Setup!F4-Setup!G4</f>
+      <c r="T4" s="7">
+        <f>Setup!S4-Setup!G4-Setup!H4</f>
         <v>371.73</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1753,65 +1776,68 @@
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>321.77999999999997</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>142.19999999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2.1800000000000002</v>
-      </c>
-      <c r="H5" s="1">
-        <v>468.3</v>
       </c>
       <c r="I5" s="1">
         <v>468.3</v>
       </c>
-      <c r="J5" s="6">
-        <f>AVERAGE(Setup!H5:I5)</f>
+      <c r="J5" s="1">
         <v>468.3</v>
       </c>
-      <c r="K5" s="7">
-        <f>1000*STDEV(Setup!H5:I5)</f>
+      <c r="K5" s="6">
+        <f>AVERAGE(Setup!I5:J5)</f>
+        <v>468.3</v>
+      </c>
+      <c r="L5" s="7">
+        <f>1000*STDEV(Setup!I5:J5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="7">
-        <f>Setup!J5-(Setup!E5+Setup!F5+Setup!G5)</f>
+      <c r="M5" s="7">
+        <f>Setup!K5-(Setup!F5+Setup!G5+Setup!H5)</f>
         <v>2.1400000000000432</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>802.16</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>22.3</v>
       </c>
-      <c r="O5" s="9">
-        <f>Setup!M5*Setup!G5/1000</f>
+      <c r="P5" s="9">
+        <f>Setup!N5*Setup!H5/1000</f>
         <v>1.7487088000000002</v>
       </c>
-      <c r="P5" s="6">
-        <f>Setup!F5*Setup!N5/1000</f>
+      <c r="Q5" s="6">
+        <f>Setup!G5*Setup!O5/1000</f>
         <v>3.1710599999999998</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <f t="shared" si="0"/>
         <v>1.8133722435662241</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>520</v>
       </c>
-      <c r="S5" s="7">
-        <f>Setup!R5-Setup!F5-Setup!G5</f>
+      <c r="T5" s="7">
+        <f>Setup!S5-Setup!G5-Setup!H5</f>
         <v>375.62</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1819,68 +1845,71 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>322.24</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>143.09</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>3.79</v>
-      </c>
-      <c r="H6" s="1">
-        <v>471.15</v>
       </c>
       <c r="I6" s="1">
         <v>471.15</v>
       </c>
-      <c r="J6" s="6">
-        <f>AVERAGE(Setup!H6:I6)</f>
+      <c r="J6" s="1">
         <v>471.15</v>
       </c>
-      <c r="K6" s="7">
-        <f>1000*STDEV(Setup!H6:I6)</f>
+      <c r="K6" s="6">
+        <f>AVERAGE(Setup!I6:J6)</f>
+        <v>471.15</v>
+      </c>
+      <c r="L6" s="7">
+        <f>1000*STDEV(Setup!I6:J6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="7">
-        <f>Setup!J6-(Setup!E6+Setup!F6+Setup!G6)</f>
+      <c r="M6" s="7">
+        <f>Setup!K6-(Setup!F6+Setup!G6+Setup!H6)</f>
         <v>2.0299999999999159</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>861.15</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>22.3</v>
       </c>
-      <c r="O6" s="9">
-        <f>Setup!M6*Setup!G6/1000</f>
+      <c r="P6" s="9">
+        <f>Setup!N6*Setup!H6/1000</f>
         <v>3.2637584999999998</v>
       </c>
-      <c r="P6" s="6">
-        <f>Setup!F6*Setup!N6/1000</f>
+      <c r="Q6" s="6">
+        <f>Setup!G6*Setup!O6/1000</f>
         <v>3.1909070000000002</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <f t="shared" si="0"/>
         <v>0.97767864871129417</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>520</v>
       </c>
-      <c r="S6" s="7">
-        <f>Setup!R6-Setup!F6-Setup!G6</f>
+      <c r="T6" s="7">
+        <f>Setup!S6-Setup!G6-Setup!H6</f>
         <v>373.11999999999995</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1888,68 +1917,71 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>323.33999999999997</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>142.91999999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>3.78</v>
-      </c>
-      <c r="H7" s="1">
-        <v>472.1</v>
       </c>
       <c r="I7" s="1">
         <v>472.1</v>
       </c>
-      <c r="J7" s="6">
-        <f>AVERAGE(Setup!H7:I7)</f>
+      <c r="J7" s="1">
         <v>472.1</v>
       </c>
-      <c r="K7" s="7">
-        <f>1000*STDEV(Setup!H7:I7)</f>
+      <c r="K7" s="6">
+        <f>AVERAGE(Setup!I7:J7)</f>
+        <v>472.1</v>
+      </c>
+      <c r="L7" s="7">
+        <f>1000*STDEV(Setup!I7:J7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="7">
-        <f>Setup!J7-(Setup!E7+Setup!F7+Setup!G7)</f>
+      <c r="M7" s="7">
+        <f>Setup!K7-(Setup!F7+Setup!G7+Setup!H7)</f>
         <v>2.0600000000000591</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>861.15</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>22.3</v>
       </c>
-      <c r="O7" s="9">
-        <f>Setup!M7*Setup!G7/1000</f>
+      <c r="P7" s="9">
+        <f>Setup!N7*Setup!H7/1000</f>
         <v>3.255147</v>
       </c>
-      <c r="P7" s="6">
-        <f>Setup!F7*Setup!N7/1000</f>
+      <c r="Q7" s="6">
+        <f>Setup!G7*Setup!O7/1000</f>
         <v>3.1871160000000001</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <f t="shared" si="0"/>
         <v>0.97910048301966091</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>520</v>
       </c>
-      <c r="S7" s="7">
-        <f>Setup!R7-Setup!F7-Setup!G7</f>
+      <c r="T7" s="7">
+        <f>Setup!S7-Setup!G7-Setup!H7</f>
         <v>373.30000000000007</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1957,68 +1989,71 @@
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>321.89</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>144.13</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>3.78</v>
-      </c>
-      <c r="H8" s="1">
-        <v>472.51</v>
       </c>
       <c r="I8" s="1">
         <v>472.51</v>
       </c>
-      <c r="J8" s="6">
-        <f>AVERAGE(Setup!H8:I8)</f>
+      <c r="J8" s="1">
         <v>472.51</v>
       </c>
-      <c r="K8" s="7">
-        <f>1000*STDEV(Setup!H8:I8)</f>
+      <c r="K8" s="6">
+        <f>AVERAGE(Setup!I8:J8)</f>
+        <v>472.51</v>
+      </c>
+      <c r="L8" s="7">
+        <f>1000*STDEV(Setup!I8:J8)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="7">
-        <f>Setup!J8-(Setup!E8+Setup!F8+Setup!G8)</f>
+      <c r="M8" s="7">
+        <f>Setup!K8-(Setup!F8+Setup!G8+Setup!H8)</f>
         <v>2.7100000000000364</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>861.15</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>22.3</v>
       </c>
-      <c r="O8" s="9">
-        <f>Setup!M8*Setup!G8/1000</f>
+      <c r="P8" s="9">
+        <f>Setup!N8*Setup!H8/1000</f>
         <v>3.255147</v>
       </c>
-      <c r="P8" s="6">
-        <f>Setup!F8*Setup!N8/1000</f>
+      <c r="Q8" s="6">
+        <f>Setup!G8*Setup!O8/1000</f>
         <v>3.214099</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <f t="shared" si="0"/>
         <v>0.98738981680397231</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>520</v>
       </c>
-      <c r="S8" s="7">
-        <f>Setup!R8-Setup!F8-Setup!G8</f>
+      <c r="T8" s="7">
+        <f>Setup!S8-Setup!G8-Setup!H8</f>
         <v>372.09000000000003</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2029,62 +2064,65 @@
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>321.75</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>142.37</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1.6</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>467.77</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>467.75</v>
       </c>
-      <c r="J9" s="6">
-        <f>AVERAGE(Setup!H9:I9)</f>
+      <c r="K9" s="6">
+        <f>AVERAGE(Setup!I9:J9)</f>
         <v>467.76</v>
       </c>
-      <c r="K9" s="7">
-        <f>1000*STDEV(Setup!H9:I9)</f>
+      <c r="L9" s="7">
+        <f>1000*STDEV(Setup!I9:J9)</f>
         <v>14.142135623718088</v>
       </c>
-      <c r="L9" s="7">
-        <f>Setup!J9-(Setup!E9+Setup!F9+Setup!G9)</f>
+      <c r="M9" s="7">
+        <f>Setup!K9-(Setup!F9+Setup!G9+Setup!H9)</f>
         <v>2.0399999999999636</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>989.19</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>22.3</v>
       </c>
-      <c r="O9" s="9">
-        <f>Setup!M9*Setup!G9/1000</f>
+      <c r="P9" s="9">
+        <f>Setup!N9*Setup!H9/1000</f>
         <v>1.5827040000000001</v>
       </c>
-      <c r="P9" s="6">
-        <f>Setup!F9*Setup!N9/1000</f>
+      <c r="Q9" s="6">
+        <f>Setup!G9*Setup!O9/1000</f>
         <v>3.1748510000000003</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <f t="shared" si="0"/>
         <v>2.0059663714756519</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>520</v>
       </c>
-      <c r="S9" s="7">
-        <f>Setup!R9-Setup!F9-Setup!G9</f>
+      <c r="T9" s="7">
+        <f>Setup!S9-Setup!G9-Setup!H9</f>
         <v>376.03</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2095,62 +2133,65 @@
         <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>322.04000000000002</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>142.80000000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>1.62</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>468.51</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>468.5</v>
       </c>
-      <c r="J10" s="6">
-        <f>AVERAGE(Setup!H10:I10)</f>
+      <c r="K10" s="6">
+        <f>AVERAGE(Setup!I10:J10)</f>
         <v>468.505</v>
       </c>
-      <c r="K10" s="7">
-        <f>1000*STDEV(Setup!H10:I10)</f>
+      <c r="L10" s="7">
+        <f>1000*STDEV(Setup!I10:J10)</f>
         <v>7.0710678118590442</v>
       </c>
-      <c r="L10" s="7">
-        <f>Setup!J10-(Setup!E10+Setup!F10+Setup!G10)</f>
+      <c r="M10" s="7">
+        <f>Setup!K10-(Setup!F10+Setup!G10+Setup!H10)</f>
         <v>2.0449999999999591</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>989.19</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>22.3</v>
       </c>
-      <c r="O10" s="9">
-        <f>Setup!M10*Setup!G10/1000</f>
+      <c r="P10" s="9">
+        <f>Setup!N10*Setup!H10/1000</f>
         <v>1.6024878</v>
       </c>
-      <c r="P10" s="6">
-        <f>Setup!F10*Setup!N10/1000</f>
+      <c r="Q10" s="6">
+        <f>Setup!G10*Setup!O10/1000</f>
         <v>3.1844400000000004</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <f t="shared" si="0"/>
         <v>1.9871851754503218</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>520</v>
       </c>
-      <c r="S10" s="7">
-        <f>Setup!R10-Setup!F10-Setup!G10</f>
+      <c r="T10" s="7">
+        <f>Setup!S10-Setup!G10-Setup!H10</f>
         <v>375.58</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2161,62 +2202,65 @@
         <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>321.58999999999997</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>145.19</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>1.64</v>
-      </c>
-      <c r="H11" s="1">
-        <v>470.55</v>
       </c>
       <c r="I11" s="1">
         <v>470.55</v>
       </c>
-      <c r="J11" s="6">
-        <f>AVERAGE(Setup!H11:I11)</f>
+      <c r="J11" s="1">
         <v>470.55</v>
       </c>
-      <c r="K11" s="7">
-        <f>1000*STDEV(Setup!H11:I11)</f>
+      <c r="K11" s="6">
+        <f>AVERAGE(Setup!I11:J11)</f>
+        <v>470.55</v>
+      </c>
+      <c r="L11" s="7">
+        <f>1000*STDEV(Setup!I11:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="7">
-        <f>Setup!J11-(Setup!E11+Setup!F11+Setup!G11)</f>
+      <c r="M11" s="7">
+        <f>Setup!K11-(Setup!F11+Setup!G11+Setup!H11)</f>
         <v>2.1300000000000523</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>989.19</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>22.3</v>
       </c>
-      <c r="O11" s="9">
-        <f>Setup!M11*Setup!G11/1000</f>
+      <c r="P11" s="9">
+        <f>Setup!N11*Setup!H11/1000</f>
         <v>1.6222715999999999</v>
       </c>
-      <c r="P11" s="6">
-        <f>Setup!F11*Setup!N11/1000</f>
+      <c r="Q11" s="6">
+        <f>Setup!G11*Setup!O11/1000</f>
         <v>3.2377370000000001</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <f t="shared" si="0"/>
         <v>1.9958045249636376</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>520</v>
       </c>
-      <c r="S11" s="7">
-        <f>Setup!R11-Setup!F11-Setup!G11</f>
+      <c r="T11" s="7">
+        <f>Setup!S11-Setup!G11-Setup!H11</f>
         <v>373.17</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2227,53 +2271,56 @@
         <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>320.81</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>406.51</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>729.49</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>729.5</v>
       </c>
-      <c r="J12" s="6">
-        <f>AVERAGE(Setup!H12:I12)</f>
+      <c r="K12" s="6">
+        <f>AVERAGE(Setup!I12:J12)</f>
         <v>729.495</v>
       </c>
-      <c r="K12" s="7">
-        <f>1000*STDEV(Setup!H12:I12)</f>
+      <c r="L12" s="7">
+        <f>1000*STDEV(Setup!I12:J12)</f>
         <v>7.0710678118590442</v>
       </c>
-      <c r="L12" s="7">
-        <f>Setup!J12-(Setup!E12+Setup!F12+Setup!G12)</f>
+      <c r="M12" s="7">
+        <f>Setup!K12-(Setup!F12+Setup!G12+Setup!H12)</f>
         <v>2.1750000000000682</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>22.3</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="6">
-        <f>Setup!F12*Setup!N12/1000</f>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="6">
+        <f>Setup!G12*Setup!O12/1000</f>
         <v>9.0651730000000015</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="1">
+      <c r="R12" s="6"/>
+      <c r="S12" s="1">
         <v>520</v>
       </c>
-      <c r="S12" s="7">
-        <f>Setup!R12-Setup!F12-Setup!G12</f>
+      <c r="T12" s="7">
+        <f>Setup!S12-Setup!G12-Setup!H12</f>
         <v>113.49000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -2284,53 +2331,56 @@
         <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>318.87</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>401.2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>722.08</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>722.09</v>
       </c>
-      <c r="J13" s="6">
-        <f>AVERAGE(Setup!H13:I13)</f>
+      <c r="K13" s="6">
+        <f>AVERAGE(Setup!I13:J13)</f>
         <v>722.08500000000004</v>
       </c>
-      <c r="K13" s="7">
-        <f>1000*STDEV(Setup!H13:I13)</f>
+      <c r="L13" s="7">
+        <f>1000*STDEV(Setup!I13:J13)</f>
         <v>7.0710678118590442</v>
       </c>
-      <c r="L13" s="7">
-        <f>Setup!J13-(Setup!E13+Setup!F13+Setup!G13)</f>
+      <c r="M13" s="7">
+        <f>Setup!K13-(Setup!F13+Setup!G13+Setup!H13)</f>
         <v>2.0150000000001</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>22.3</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="6">
-        <f>Setup!F13*Setup!N13/1000</f>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="6">
+        <f>Setup!G13*Setup!O13/1000</f>
         <v>8.9467599999999994</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="1">
+      <c r="R13" s="6"/>
+      <c r="S13" s="1">
         <v>520</v>
       </c>
-      <c r="S13" s="7">
-        <f>Setup!R13-Setup!F13-Setup!G13</f>
+      <c r="T13" s="7">
+        <f>Setup!S13-Setup!G13-Setup!H13</f>
         <v>118.80000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2341,53 +2391,56 @@
         <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>321.95</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>416.59</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>740.53</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>740.54</v>
       </c>
-      <c r="J14" s="6">
-        <f>AVERAGE(Setup!H14:I14)</f>
+      <c r="K14" s="6">
+        <f>AVERAGE(Setup!I14:J14)</f>
         <v>740.53499999999997</v>
       </c>
-      <c r="K14" s="7">
-        <f>1000*STDEV(Setup!H14:I14)</f>
+      <c r="L14" s="7">
+        <f>1000*STDEV(Setup!I14:J14)</f>
         <v>7.0710678118590442</v>
       </c>
-      <c r="L14" s="7">
-        <f>Setup!J14-(Setup!E14+Setup!F14+Setup!G14)</f>
+      <c r="M14" s="7">
+        <f>Setup!K14-(Setup!F14+Setup!G14+Setup!H14)</f>
         <v>1.9950000000000045</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>22.3</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="6">
-        <f>Setup!F14*Setup!N14/1000</f>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="6">
+        <f>Setup!G14*Setup!O14/1000</f>
         <v>9.2899570000000011</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="1">
+      <c r="R14" s="6"/>
+      <c r="S14" s="1">
         <v>520</v>
       </c>
-      <c r="S14" s="7">
-        <f>Setup!R14-Setup!F14-Setup!G14</f>
+      <c r="T14" s="7">
+        <f>Setup!S14-Setup!G14-Setup!H14</f>
         <v>103.41000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2398,53 +2451,56 @@
         <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>322.01</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>399.71</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>723.77</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>723.78</v>
       </c>
-      <c r="J15" s="6">
-        <f>AVERAGE(Setup!H15:I15)</f>
+      <c r="K15" s="6">
+        <f>AVERAGE(Setup!I15:J15)</f>
         <v>723.77499999999998</v>
       </c>
-      <c r="K15" s="7">
-        <f>1000*STDEV(Setup!H15:I15)</f>
+      <c r="L15" s="7">
+        <f>1000*STDEV(Setup!I15:J15)</f>
         <v>7.0710678118590442</v>
       </c>
-      <c r="L15" s="7">
-        <f>Setup!J15-(Setup!E15+Setup!F15+Setup!G15)</f>
+      <c r="M15" s="7">
+        <f>Setup!K15-(Setup!F15+Setup!G15+Setup!H15)</f>
         <v>2.05499999999995</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>22.3</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="6">
-        <f>Setup!F15*Setup!N15/1000</f>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="6">
+        <f>Setup!G15*Setup!O15/1000</f>
         <v>8.9135329999999993</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="1">
+      <c r="R15" s="6"/>
+      <c r="S15" s="1">
         <v>520</v>
       </c>
-      <c r="S15" s="7">
-        <f>Setup!R15-Setup!F15-Setup!G15</f>
+      <c r="T15" s="7">
+        <f>Setup!S15-Setup!G15-Setup!H15</f>
         <v>120.29000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2454,44 +2510,47 @@
       <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1">
         <v>321.88</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>165.85</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>487.66</v>
       </c>
       <c r="I16" s="1">
         <v>487.66</v>
       </c>
-      <c r="J16" s="6">
-        <f>AVERAGE(Setup!H16:I16)</f>
+      <c r="J16" s="1">
         <v>487.66</v>
       </c>
-      <c r="K16" s="7">
-        <f>1000*STDEV(Setup!H16:I16)</f>
+      <c r="K16" s="6">
+        <f>AVERAGE(Setup!I16:J16)</f>
+        <v>487.66</v>
+      </c>
+      <c r="L16" s="7">
+        <f>1000*STDEV(Setup!I16:J16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="7">
-        <f>Setup!J16-(Setup!E16+Setup!F16+Setup!G16)</f>
+      <c r="M16" s="7">
+        <f>Setup!K16-(Setup!F16+Setup!G16+Setup!H16)</f>
         <v>-6.9999999999993179E-2</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="6">
-        <f>Setup!F16*Setup!N16/1000</f>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="6">
+        <f>Setup!G16*Setup!O16/1000</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="1">
+      <c r="R16" s="6"/>
+      <c r="S16" s="1">
         <v>520</v>
       </c>
-      <c r="S16" s="7">
-        <f>Setup!R16-Setup!F16-Setup!G16</f>
+      <c r="T16" s="7">
+        <f>Setup!S16-Setup!G16-Setup!H16</f>
         <v>354.15</v>
       </c>
     </row>
@@ -2503,17 +2562,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK240"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
@@ -2532,7 +2591,7 @@
     <col min="1023" max="1025" width="5.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2570,7 +2629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2608,7 +2667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Setup!A3</f>
         <v>IIS-BMP2</v>
@@ -2630,14 +2689,14 @@
         <v>1007.24</v>
       </c>
       <c r="G3" s="6">
-        <f>Setup!J3</f>
+        <f>Setup!K3</f>
         <v>468.51499999999999</v>
       </c>
       <c r="H3" s="10">
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>Setup!J3</f>
+        <f>Setup!K3</f>
         <v>468.51499999999999</v>
       </c>
       <c r="K3" s="11">
@@ -2648,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Setup!A4</f>
         <v>IIS-BMP2</v>
@@ -2670,14 +2729,14 @@
         <v>1007.24</v>
       </c>
       <c r="G4" s="6">
-        <f>Setup!J4</f>
+        <f>Setup!K4</f>
         <v>471.9</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f>Setup!J4</f>
+        <f>Setup!K4</f>
         <v>471.9</v>
       </c>
       <c r="K4" s="11">
@@ -2688,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Setup!A5</f>
         <v>IIS-BMP2</v>
@@ -2710,14 +2769,14 @@
         <v>1007.24</v>
       </c>
       <c r="G5" s="6">
-        <f>Setup!J5</f>
+        <f>Setup!K5</f>
         <v>468.3</v>
       </c>
       <c r="H5" s="10">
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f>Setup!J5</f>
+        <f>Setup!K5</f>
         <v>468.3</v>
       </c>
       <c r="K5" s="11">
@@ -2728,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Setup!A6</f>
         <v>IIS-BMP2</v>
@@ -2750,14 +2809,14 @@
         <v>1007.24</v>
       </c>
       <c r="G6" s="6">
-        <f>Setup!J6</f>
+        <f>Setup!K6</f>
         <v>471.15</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f>Setup!J6</f>
+        <f>Setup!K6</f>
         <v>471.15</v>
       </c>
       <c r="K6" s="11">
@@ -2768,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>Setup!A7</f>
         <v>IIS-BMP2</v>
@@ -2790,14 +2849,14 @@
         <v>1007.24</v>
       </c>
       <c r="G7" s="6">
-        <f>Setup!J7</f>
+        <f>Setup!K7</f>
         <v>472.1</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <f>Setup!J7</f>
+        <f>Setup!K7</f>
         <v>472.1</v>
       </c>
       <c r="K7" s="11">
@@ -2808,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>Setup!A8</f>
         <v>IIS-BMP2</v>
@@ -2830,14 +2889,14 @@
         <v>1007.24</v>
       </c>
       <c r="G8" s="6">
-        <f>Setup!J8</f>
+        <f>Setup!K8</f>
         <v>472.51</v>
       </c>
       <c r="H8" s="10">
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <f>Setup!J8</f>
+        <f>Setup!K8</f>
         <v>472.51</v>
       </c>
       <c r="K8" s="11">
@@ -2848,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>Setup!A9</f>
         <v>IIS-BMP2</v>
@@ -2870,14 +2929,14 @@
         <v>1007.24</v>
       </c>
       <c r="G9" s="6">
-        <f>Setup!J9</f>
+        <f>Setup!K9</f>
         <v>467.76</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <f>Setup!J9</f>
+        <f>Setup!K9</f>
         <v>467.76</v>
       </c>
       <c r="K9" s="11">
@@ -2888,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>Setup!A10</f>
         <v>IIS-BMP2</v>
@@ -2910,14 +2969,14 @@
         <v>1007.24</v>
       </c>
       <c r="G10" s="6">
-        <f>Setup!J10</f>
+        <f>Setup!K10</f>
         <v>468.505</v>
       </c>
       <c r="H10" s="10">
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <f>Setup!J10</f>
+        <f>Setup!K10</f>
         <v>468.505</v>
       </c>
       <c r="K10" s="11">
@@ -2928,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>Setup!A11</f>
         <v>IIS-BMP2</v>
@@ -2950,14 +3009,14 @@
         <v>1007.24</v>
       </c>
       <c r="G11" s="6">
-        <f>Setup!J11</f>
+        <f>Setup!K11</f>
         <v>470.55</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <f>Setup!J11</f>
+        <f>Setup!K11</f>
         <v>470.55</v>
       </c>
       <c r="K11" s="11">
@@ -2968,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>Setup!A12</f>
         <v>IIS-BMP2</v>
@@ -2990,14 +3049,14 @@
         <v>1007.24</v>
       </c>
       <c r="G12" s="6">
-        <f>Setup!J12</f>
+        <f>Setup!K12</f>
         <v>729.495</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
       </c>
       <c r="I12" s="6">
-        <f>Setup!J12</f>
+        <f>Setup!K12</f>
         <v>729.495</v>
       </c>
       <c r="K12" s="11">
@@ -3008,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f>Setup!A13</f>
         <v>IIS-BMP2</v>
@@ -3030,14 +3089,14 @@
         <v>1007.24</v>
       </c>
       <c r="G13" s="6">
-        <f>Setup!J13</f>
+        <f>Setup!K13</f>
         <v>722.08500000000004</v>
       </c>
       <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="I13" s="6">
-        <f>Setup!J13</f>
+        <f>Setup!K13</f>
         <v>722.08500000000004</v>
       </c>
       <c r="K13" s="11">
@@ -3048,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>Setup!A14</f>
         <v>IIS-BMP2</v>
@@ -3070,14 +3129,14 @@
         <v>1007.24</v>
       </c>
       <c r="G14" s="6">
-        <f>Setup!J14</f>
+        <f>Setup!K14</f>
         <v>740.53499999999997</v>
       </c>
       <c r="H14" s="10">
         <v>0</v>
       </c>
       <c r="I14" s="6">
-        <f>Setup!J14</f>
+        <f>Setup!K14</f>
         <v>740.53499999999997</v>
       </c>
       <c r="K14" s="11">
@@ -3088,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>Setup!A15</f>
         <v>IIS-BMP2</v>
@@ -3110,14 +3169,14 @@
         <v>1007.24</v>
       </c>
       <c r="G15" s="6">
-        <f>Setup!J15</f>
+        <f>Setup!K15</f>
         <v>723.77499999999998</v>
       </c>
       <c r="H15" s="10">
         <v>0</v>
       </c>
       <c r="I15" s="6">
-        <f>Setup!J15</f>
+        <f>Setup!K15</f>
         <v>723.77499999999998</v>
       </c>
       <c r="K15" s="11">
@@ -3128,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f>Setup!A16</f>
         <v>IIS-BMP2</v>
@@ -3150,14 +3209,14 @@
         <v>1007.24</v>
       </c>
       <c r="G16" s="6">
-        <f>Setup!J16</f>
+        <f>Setup!K16</f>
         <v>487.66</v>
       </c>
       <c r="H16" s="10">
         <v>0</v>
       </c>
       <c r="I16" s="6">
-        <f>Setup!J16</f>
+        <f>Setup!K16</f>
         <v>487.66</v>
       </c>
       <c r="K16" s="11">
@@ -3168,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -3205,7 +3264,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -3242,7 +3301,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -3279,7 +3338,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -3312,7 +3371,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,7 +3411,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -3389,7 +3448,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3426,7 +3485,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -3463,7 +3522,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -3499,7 +3558,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -3535,7 +3594,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -3574,7 +3633,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -3613,7 +3672,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -3652,7 +3711,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3691,7 +3750,7 @@
         <v>0.72569444444525288</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -3728,7 +3787,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -3767,7 +3826,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -3806,7 +3865,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -3845,7 +3904,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -3884,7 +3943,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3923,7 +3982,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -3962,7 +4021,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -4001,7 +4060,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -4041,7 +4100,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -4081,7 +4140,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -4121,7 +4180,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -4161,7 +4220,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -4201,7 +4260,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -4241,7 +4300,7 @@
         <v>1.6041666666424135</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -4278,7 +4337,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -4315,7 +4374,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -4352,7 +4411,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
@@ -4388,7 +4447,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -4425,7 +4484,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
@@ -4462,7 +4521,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -4499,7 +4558,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
@@ -4536,7 +4595,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -4573,7 +4632,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -4610,7 +4669,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -4650,7 +4709,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
@@ -4690,7 +4749,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
@@ -4729,7 +4788,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -4768,7 +4827,7 @@
         <v>2.977083333345945</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -4804,7 +4863,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -4843,7 +4902,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
@@ -4879,7 +4938,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
@@ -4915,7 +4974,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -4951,7 +5010,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
@@ -4988,7 +5047,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
@@ -5025,7 +5084,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>40</v>
       </c>
@@ -5062,7 +5121,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -5099,7 +5158,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
@@ -5136,7 +5195,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>40</v>
       </c>
@@ -5173,7 +5232,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -5210,7 +5269,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -5247,7 +5306,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
@@ -5284,7 +5343,7 @@
         <v>3.7187500000436557</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -5317,7 +5376,7 @@
         <v>4.7569444444452529</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -5357,7 +5416,7 @@
         <v>4.7569444444452529</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
@@ -5397,7 +5456,7 @@
         <v>4.7569444444452529</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>40</v>
       </c>
@@ -5437,7 +5496,7 @@
         <v>4.7569444444452529</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
@@ -5470,7 +5529,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>40</v>
       </c>
@@ -5507,7 +5566,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>40</v>
       </c>
@@ -5543,7 +5602,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -5579,7 +5638,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -5616,7 +5675,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
@@ -5655,7 +5714,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>40</v>
       </c>
@@ -5694,7 +5753,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>40</v>
       </c>
@@ -5731,7 +5790,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -5768,7 +5827,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>40</v>
       </c>
@@ -5805,7 +5864,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -5842,7 +5901,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -5879,7 +5938,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -5916,7 +5975,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -5953,7 +6012,7 @@
         <v>5.6888888888424844</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -5986,7 +6045,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -6022,7 +6081,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -6058,7 +6117,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -6094,7 +6153,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
@@ -6130,7 +6189,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
@@ -6166,7 +6225,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -6202,7 +6261,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>40</v>
       </c>
@@ -6238,7 +6297,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>40</v>
       </c>
@@ -6275,7 +6334,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
@@ -6315,7 +6374,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -6352,7 +6411,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
@@ -6388,7 +6447,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>40</v>
       </c>
@@ -6424,7 +6483,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -6460,7 +6519,7 @@
         <v>7.8152777777431766</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>40</v>
       </c>
@@ -6496,7 +6555,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>40</v>
       </c>
@@ -6533,7 +6592,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -6570,7 +6629,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>40</v>
       </c>
@@ -6607,7 +6666,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>40</v>
       </c>
@@ -6643,7 +6702,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>40</v>
       </c>
@@ -6679,7 +6738,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
@@ -6715,7 +6774,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>40</v>
       </c>
@@ -6751,7 +6810,7 @@
         <v>9.2395833333430346</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>40</v>
       </c>
@@ -6784,7 +6843,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>40</v>
       </c>
@@ -6820,7 +6879,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>40</v>
       </c>
@@ -6856,7 +6915,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>40</v>
       </c>
@@ -6892,7 +6951,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>40</v>
       </c>
@@ -6928,7 +6987,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
@@ -6964,7 +7023,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>40</v>
       </c>
@@ -7000,7 +7059,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>40</v>
       </c>
@@ -7036,7 +7095,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>40</v>
       </c>
@@ -7073,7 +7132,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>40</v>
       </c>
@@ -7110,7 +7169,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>40</v>
       </c>
@@ -7147,7 +7206,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>40</v>
       </c>
@@ -7183,7 +7242,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>40</v>
       </c>
@@ -7219,7 +7278,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>40</v>
       </c>
@@ -7255,7 +7314,7 @@
         <v>10.83888888884394</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>40</v>
       </c>
@@ -7288,7 +7347,7 @@
         <v>13.859722222245182</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>40</v>
       </c>
@@ -7324,7 +7383,7 @@
         <v>13.860416666648234</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
@@ -7360,7 +7419,7 @@
         <v>13.861111111145874</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>40</v>
       </c>
@@ -7396,7 +7455,7 @@
         <v>13.86180555554165</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>40</v>
       </c>
@@ -7433,7 +7492,7 @@
         <v>13.862500000046566</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>40</v>
       </c>
@@ -7470,7 +7529,7 @@
         <v>13.863194444442343</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>40</v>
       </c>
@@ -7507,7 +7566,7 @@
         <v>13.863888888845395</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>40</v>
       </c>
@@ -7544,7 +7603,7 @@
         <v>13.864583333343035</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>40</v>
       </c>
@@ -7581,7 +7640,7 @@
         <v>13.865277777746087</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>40</v>
       </c>
@@ -7618,7 +7677,7 @@
         <v>13.865972222243727</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>40</v>
       </c>
@@ -7655,7 +7714,7 @@
         <v>13.866666666646779</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>40</v>
       </c>
@@ -7691,7 +7750,7 @@
         <v>13.867361111144419</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>40</v>
       </c>
@@ -7727,7 +7786,7 @@
         <v>13.868055555547471</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>40</v>
       </c>
@@ -7763,7 +7822,7 @@
         <v>13.868750000045111</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>40</v>
       </c>
@@ -7796,7 +7855,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>40</v>
       </c>
@@ -7832,7 +7891,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>40</v>
       </c>
@@ -7868,7 +7927,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>40</v>
       </c>
@@ -7904,7 +7963,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>40</v>
       </c>
@@ -7940,7 +7999,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>40</v>
       </c>
@@ -7976,7 +8035,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>40</v>
       </c>
@@ -8012,7 +8071,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>40</v>
       </c>
@@ -8048,7 +8107,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>40</v>
       </c>
@@ -8085,7 +8144,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>40</v>
       </c>
@@ -8122,7 +8181,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>40</v>
       </c>
@@ -8159,7 +8218,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -8195,7 +8254,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>40</v>
       </c>
@@ -8231,7 +8290,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>40</v>
       </c>
@@ -8267,7 +8326,7 @@
         <v>18.240972222243727</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>40</v>
       </c>
@@ -8300,7 +8359,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>40</v>
       </c>
@@ -8336,7 +8395,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>40</v>
       </c>
@@ -8372,7 +8431,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>40</v>
       </c>
@@ -8408,7 +8467,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>40</v>
       </c>
@@ -8444,7 +8503,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>40</v>
       </c>
@@ -8480,7 +8539,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>40</v>
       </c>
@@ -8516,7 +8575,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>40</v>
       </c>
@@ -8552,7 +8611,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>40</v>
       </c>
@@ -8588,7 +8647,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>40</v>
       </c>
@@ -8624,7 +8683,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>40</v>
       </c>
@@ -8660,7 +8719,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>40</v>
       </c>
@@ -8696,7 +8755,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>40</v>
       </c>
@@ -8732,7 +8791,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>40</v>
       </c>
@@ -8768,7 +8827,7 @@
         <v>21.800694444442343</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>40</v>
       </c>
@@ -8801,7 +8860,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>40</v>
       </c>
@@ -8837,7 +8896,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>40</v>
       </c>
@@ -8873,7 +8932,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>40</v>
       </c>
@@ -8909,7 +8968,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>40</v>
       </c>
@@ -8945,7 +9004,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>40</v>
       </c>
@@ -8981,7 +9040,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>40</v>
       </c>
@@ -9017,7 +9076,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>40</v>
       </c>
@@ -9053,7 +9112,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>40</v>
       </c>
@@ -9089,7 +9148,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>40</v>
       </c>
@@ -9125,7 +9184,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>40</v>
       </c>
@@ -9161,7 +9220,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>40</v>
       </c>
@@ -9197,7 +9256,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>40</v>
       </c>
@@ -9233,7 +9292,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>40</v>
       </c>
@@ -9269,7 +9328,7 @@
         <v>27.9395833333474</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>40</v>
       </c>
@@ -9303,7 +9362,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>40</v>
       </c>
@@ -9339,7 +9398,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>40</v>
       </c>
@@ -9375,7 +9434,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>40</v>
       </c>
@@ -9411,7 +9470,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>40</v>
       </c>
@@ -9447,7 +9506,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>40</v>
       </c>
@@ -9483,7 +9542,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>40</v>
       </c>
@@ -9519,7 +9578,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>40</v>
       </c>
@@ -9555,7 +9614,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>40</v>
       </c>
@@ -9591,7 +9650,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>40</v>
       </c>
@@ -9627,7 +9686,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>40</v>
       </c>
@@ -9663,7 +9722,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>40</v>
       </c>
@@ -9699,7 +9758,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>40</v>
       </c>
@@ -9731,11 +9790,11 @@
         <v>43402.406944444498</v>
       </c>
       <c r="L195" s="6">
-        <f t="shared" ref="L195:L258" si="3">K195-K$3</f>
+        <f t="shared" ref="L195:L238" si="3">K195-K$3</f>
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>40</v>
       </c>
@@ -9771,7 +9830,7 @@
         <v>31.757638888942893</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>40</v>
       </c>
@@ -9807,7 +9866,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>40</v>
       </c>
@@ -9846,7 +9905,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>40</v>
       </c>
@@ -9885,7 +9944,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>40</v>
       </c>
@@ -9924,7 +9983,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>40</v>
       </c>
@@ -9964,7 +10023,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>40</v>
       </c>
@@ -10004,7 +10063,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>40</v>
       </c>
@@ -10043,7 +10102,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>40</v>
       </c>
@@ -10082,7 +10141,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>40</v>
       </c>
@@ -10121,7 +10180,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>40</v>
       </c>
@@ -10160,7 +10219,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>40</v>
       </c>
@@ -10199,7 +10258,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>40</v>
       </c>
@@ -10238,7 +10297,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>40</v>
       </c>
@@ -10277,7 +10336,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>40</v>
       </c>
@@ -10316,7 +10375,7 @@
         <v>49.938888888842484</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>40</v>
       </c>
@@ -10352,7 +10411,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>40</v>
       </c>
@@ -10388,7 +10447,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>40</v>
       </c>
@@ -10424,7 +10483,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>40</v>
       </c>
@@ -10460,7 +10519,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>40</v>
       </c>
@@ -10496,7 +10555,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>40</v>
       </c>
@@ -10532,7 +10591,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>40</v>
       </c>
@@ -10568,7 +10627,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>40</v>
       </c>
@@ -10605,7 +10664,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>40</v>
       </c>
@@ -10642,7 +10701,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>40</v>
       </c>
@@ -10679,7 +10738,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>40</v>
       </c>
@@ -10716,7 +10775,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>40</v>
       </c>
@@ -10752,7 +10811,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>40</v>
       </c>
@@ -10788,7 +10847,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>40</v>
       </c>
@@ -10824,7 +10883,7 @@
         <v>80.835416666646779</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>40</v>
       </c>
@@ -10857,7 +10916,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>40</v>
       </c>
@@ -10893,7 +10952,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>40</v>
       </c>
@@ -10929,7 +10988,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>40</v>
       </c>
@@ -10968,7 +11027,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>40</v>
       </c>
@@ -11005,7 +11064,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>40</v>
       </c>
@@ -11042,7 +11101,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>40</v>
       </c>
@@ -11079,7 +11138,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>40</v>
       </c>
@@ -11116,7 +11175,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>40</v>
       </c>
@@ -11152,7 +11211,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>40</v>
       </c>
@@ -11188,7 +11247,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>40</v>
       </c>
@@ -11224,7 +11283,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>40</v>
       </c>
@@ -11260,7 +11319,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>40</v>
       </c>
@@ -11296,7 +11355,7 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>40</v>
       </c>
@@ -11332,10 +11391,10 @@
         <v>128.89930555555475</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L239" s="6"/>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L240" s="6"/>
     </row>
   </sheetData>
@@ -11347,14 +11406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
@@ -11363,7 +11422,7 @@
     <col min="5" max="1025" width="8.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>137</v>
       </c>
@@ -11377,7 +11436,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>141</v>
       </c>
@@ -11391,7 +11450,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>145</v>
       </c>
@@ -11405,7 +11464,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
@@ -11419,7 +11478,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>150</v>
       </c>
@@ -11433,7 +11492,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>152</v>
       </c>
@@ -11447,7 +11506,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>154</v>
       </c>
@@ -11461,7 +11520,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>154</v>
       </c>
@@ -11475,7 +11534,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>154</v>
       </c>
@@ -11489,7 +11548,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>154</v>
       </c>
@@ -11503,7 +11562,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -11517,7 +11576,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
@@ -11531,7 +11590,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>163</v>
       </c>
@@ -11545,7 +11604,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>165</v>
       </c>
@@ -11559,7 +11618,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>165</v>
       </c>
@@ -11573,7 +11632,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>165</v>
       </c>
@@ -11587,7 +11646,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>165</v>
       </c>
@@ -11601,7 +11660,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>170</v>
       </c>
@@ -11615,7 +11674,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>170</v>
       </c>
@@ -11629,7 +11688,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>170</v>
       </c>
@@ -11641,6 +11700,20 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/IISBMP2/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP2/data/biogas_and_setup.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Biogas" sheetId="2" r:id="rId2"/>
     <sheet name="ChangeLog" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="183">
   <si>
     <t>Experiment</t>
   </si>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t>28 March 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add sampling data for 07 april 2019. </t>
+  </si>
+  <si>
+    <t>07 April 2019</t>
+  </si>
+  <si>
+    <t>07.04.2019</t>
+  </si>
+  <si>
+    <t>Forgot to write down initial mass. Set to final value from previous (assumes no leakage).</t>
   </si>
 </sst>
 </file>
@@ -628,7 +640,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -661,6 +673,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -682,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,6 +751,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2563,13 +2585,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK240"/>
+  <dimension ref="A1:AMK252"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="L246" sqref="L246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11392,10 +11414,414 @@
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D239" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E239" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F239" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G239" s="1">
+        <v>487.56</v>
+      </c>
       <c r="L239" s="6"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D240" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E240" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F240" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G240" s="1">
+        <v>467.35</v>
+      </c>
+      <c r="H240" s="10">
+        <v>97</v>
+      </c>
+      <c r="I240" s="8">
+        <v>467.24</v>
+      </c>
       <c r="L240" s="6"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D241" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E241" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F241" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G241" s="1">
+        <v>468.33</v>
+      </c>
+      <c r="H241" s="10">
+        <v>97</v>
+      </c>
+      <c r="I241" s="8">
+        <v>468.22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D242" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E242" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F242" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G242" s="1">
+        <v>468.73</v>
+      </c>
+      <c r="H242" s="10">
+        <v>101</v>
+      </c>
+      <c r="I242" s="8">
+        <v>468.61</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D243" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E243" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F243" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G243" s="1">
+        <v>465.82</v>
+      </c>
+      <c r="H243" s="10">
+        <v>82</v>
+      </c>
+      <c r="I243" s="8">
+        <v>465.74</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D244" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E244" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F244" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G244" s="1">
+        <v>469.17</v>
+      </c>
+      <c r="H244" s="10">
+        <v>77</v>
+      </c>
+      <c r="I244" s="8">
+        <v>469.09</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D245" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E245" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F245" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G245" s="1">
+        <v>465.6</v>
+      </c>
+      <c r="H245" s="10">
+        <v>75</v>
+      </c>
+      <c r="I245" s="8">
+        <v>465.51</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D246" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E246" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F246" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G246" s="1">
+        <v>465.16</v>
+      </c>
+      <c r="H246" s="10">
+        <v>77</v>
+      </c>
+      <c r="I246" s="8">
+        <v>465.08</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D247" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E247" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F247" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G247" s="1">
+        <v>465.89</v>
+      </c>
+      <c r="H247" s="10">
+        <v>81</v>
+      </c>
+      <c r="I247" s="8">
+        <v>465.82</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D248" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E248" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F248" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G248" s="1">
+        <v>467.91</v>
+      </c>
+      <c r="H248" s="10">
+        <v>78</v>
+      </c>
+      <c r="I248" s="8">
+        <v>467.82</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D249" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E249" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F249" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G249" s="1">
+        <v>727.5</v>
+      </c>
+      <c r="H249" s="10">
+        <f>144+42</f>
+        <v>186</v>
+      </c>
+      <c r="I249" s="8">
+        <v>727.33</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D250" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E250" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F250" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G250" s="1">
+        <v>720.07</v>
+      </c>
+      <c r="H250" s="10">
+        <f>145+43</f>
+        <v>188</v>
+      </c>
+      <c r="I250" s="8">
+        <v>719.88</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D251" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E251" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F251" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G251" s="1">
+        <v>738.41</v>
+      </c>
+      <c r="H251" s="10">
+        <f>143+46</f>
+        <v>189</v>
+      </c>
+      <c r="I251" s="8">
+        <v>738.23</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D252" s="8">
+        <v>11.09</v>
+      </c>
+      <c r="E252" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F252" s="8">
+        <v>1004.06</v>
+      </c>
+      <c r="G252" s="19">
+        <f>I232</f>
+        <v>721.94</v>
+      </c>
+      <c r="H252" s="10">
+        <f>171+13</f>
+        <v>184</v>
+      </c>
+      <c r="I252" s="8">
+        <v>721.59</v>
+      </c>
+      <c r="J252" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -11407,10 +11833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK21"/>
+  <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11716,6 +12142,20 @@
         <v>177</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/experiments/IISBMP2/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP2/data/biogas_and_setup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="185">
   <si>
     <t>Experiment</t>
   </si>
@@ -610,9 +610,6 @@
     <t>descrip1</t>
   </si>
   <si>
-    <t>LBD</t>
-  </si>
-  <si>
     <t>Add new description column</t>
   </si>
   <si>
@@ -629,6 +626,15 @@
   </si>
   <si>
     <t>Forgot to write down initial mass. Set to final value from previous (assumes no leakage).</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>1 April 2019</t>
+  </si>
+  <si>
+    <t>Change name of LBD to LB in descrip</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1508,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1867,7 +1873,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>47</v>
@@ -1939,7 +1945,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>47</v>
@@ -2011,7 +2017,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>47</v>
@@ -2587,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B222" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L246" sqref="L246"/>
@@ -11421,7 +11427,7 @@
         <v>63</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D239" s="8">
         <v>11.09</v>
@@ -11445,7 +11451,7 @@
         <v>46</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D240" s="8">
         <v>11.09</v>
@@ -11475,7 +11481,7 @@
         <v>50</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D241" s="8">
         <v>11.09</v>
@@ -11504,7 +11510,7 @@
         <v>51</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D242" s="8">
         <v>11.09</v>
@@ -11533,7 +11539,7 @@
         <v>41</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D243" s="8">
         <v>11.09</v>
@@ -11562,7 +11568,7 @@
         <v>44</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D244" s="8">
         <v>11.09</v>
@@ -11591,7 +11597,7 @@
         <v>45</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D245" s="8">
         <v>11.09</v>
@@ -11620,7 +11626,7 @@
         <v>52</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D246" s="8">
         <v>11.09</v>
@@ -11649,7 +11655,7 @@
         <v>55</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D247" s="8">
         <v>11.09</v>
@@ -11678,7 +11684,7 @@
         <v>56</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D248" s="8">
         <v>11.09</v>
@@ -11707,7 +11713,7 @@
         <v>57</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D249" s="8">
         <v>11.09</v>
@@ -11737,7 +11743,7 @@
         <v>60</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D250" s="8">
         <v>11.09</v>
@@ -11767,7 +11773,7 @@
         <v>61</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D251" s="8">
         <v>11.09</v>
@@ -11797,7 +11803,7 @@
         <v>62</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D252" s="8">
         <v>11.09</v>
@@ -11820,7 +11826,7 @@
         <v>721.59</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -11833,10 +11839,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK22"/>
+  <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12130,7 +12136,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>142</v>
@@ -12139,12 +12145,12 @@
         <v>148</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>142</v>
@@ -12153,7 +12159,21 @@
         <v>148</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
